--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2458528.71563736</v>
+        <v>2457861.943259295</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>411262.1819311258</v>
+        <v>411262.1819311257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058539</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.50288238498199</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="H11" t="n">
-        <v>78.12991456453881</v>
+        <v>24.92201363899175</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31394636346371</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>43.89481510945421</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="X11" t="n">
-        <v>78.12991456453881</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.89691383428357</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12991456453881</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.691442301826955</v>
+        <v>8.691442301826784</v>
       </c>
       <c r="U12" t="n">
-        <v>30.97285558660793</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="V12" t="n">
-        <v>44.87809573436235</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="W12" t="n">
-        <v>60.44977233365651</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="X12" t="n">
-        <v>11.05810319611552</v>
+        <v>36.90773689529279</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.12947489067054</v>
+        <v>17.12947489067037</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>29.09380938007667</v>
+        <v>29.0938093800765</v>
       </c>
       <c r="T13" t="n">
-        <v>17.48482276299717</v>
+        <v>17.484822762997</v>
       </c>
       <c r="U13" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="V13" t="n">
-        <v>38.85420394109482</v>
+        <v>38.85420394109465</v>
       </c>
       <c r="W13" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="X13" t="n">
-        <v>15.66464416488745</v>
+        <v>15.66464416488728</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.88646157081334</v>
+        <v>10.88646157081317</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,58 +1619,58 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>68.81682874844596</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>78.12991456453904</v>
       </c>
-      <c r="H14" t="n">
+      <c r="X14" t="n">
         <v>78.12991456453904</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34.31394636346371</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>21.00151145121198</v>
-      </c>
-      <c r="T14" t="n">
-        <v>16.16099484832859</v>
-      </c>
-      <c r="U14" t="n">
-        <v>43.89481510945438</v>
-      </c>
-      <c r="V14" t="n">
-        <v>31.57547554052626</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>12.55692034345144</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>56.29272523594338</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,55 +1704,55 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.088174660656005</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.691442301826983</v>
+      </c>
+      <c r="U15" t="n">
+        <v>30.97285558660796</v>
+      </c>
+      <c r="V15" t="n">
         <v>78.12991456453904</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.088174660656001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>8.691442301826955</v>
-      </c>
-      <c r="U15" t="n">
-        <v>30.97285558660793</v>
-      </c>
-      <c r="V15" t="n">
-        <v>34.39410967204716</v>
-      </c>
       <c r="W15" t="n">
-        <v>60.44977233365651</v>
+        <v>60.44977233365654</v>
       </c>
       <c r="X15" t="n">
-        <v>11.05810319611552</v>
+        <v>11.05810319611555</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.12947489067054</v>
+        <v>17.12947489067056</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>29.09380938007667</v>
+        <v>29.0938093800767</v>
       </c>
       <c r="T16" t="n">
-        <v>17.48482276299717</v>
+        <v>17.4848227629972</v>
       </c>
       <c r="U16" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="V16" t="n">
-        <v>38.85420394109482</v>
+        <v>38.85420394109485</v>
       </c>
       <c r="W16" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="X16" t="n">
-        <v>15.66464416488745</v>
+        <v>15.66464416488748</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.88646157081334</v>
+        <v>10.88646157081337</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>78.12991456453904</v>
       </c>
       <c r="H17" t="n">
-        <v>9.28920272390941</v>
+        <v>9.289202723909412</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0.2814201397421812</v>
       </c>
       <c r="X17" t="n">
-        <v>22.16767060868161</v>
+        <v>22.16767060868142</v>
       </c>
       <c r="Y17" t="n">
         <v>44.67052373242518</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>68.81682874844596</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>68.81682874844596</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="V18" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>78.12991456453904</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,10 +2093,10 @@
         <v>65.58420595398877</v>
       </c>
       <c r="G20" t="n">
-        <v>78.12991456453899</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="H20" t="n">
-        <v>9.289202723909398</v>
+        <v>9.289202723909646</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.89691383428357</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="U21" t="n">
-        <v>10.8317402535064</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>68.81682874844597</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>65.58420595398877</v>
       </c>
       <c r="G23" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="H23" t="n">
         <v>9.289202723909398</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.81682874844597</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>62.72865408779005</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2075768581598</v>
+        <v>161.2075768581599</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3258338615053</v>
+        <v>137.3258338615054</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8924961225538</v>
+        <v>124.8924961225539</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5992485419627</v>
+        <v>158.5992485419628</v>
       </c>
       <c r="F26" t="n">
-        <v>190.31958612034</v>
+        <v>190.3195861203401</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9470701949715</v>
+        <v>205.9470701949716</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0245828902606</v>
+        <v>134.0245828902607</v>
       </c>
       <c r="I26" t="n">
-        <v>27.68909408714529</v>
+        <v>27.68909408714541</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.37665917489355</v>
+        <v>14.37665917489367</v>
       </c>
       <c r="T26" t="n">
-        <v>9.536142572010169</v>
+        <v>9.536142572010283</v>
       </c>
       <c r="U26" t="n">
-        <v>37.26996283313596</v>
+        <v>37.26996283313608</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0001200894785</v>
+        <v>108.0001200894786</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0168003060934</v>
+        <v>125.0168003060935</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9030507750326</v>
+        <v>146.9030507750327</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4059038987764</v>
+        <v>169.4059038987765</v>
       </c>
     </row>
     <row r="27">
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.066590025508534</v>
+        <v>2.066590025508648</v>
       </c>
       <c r="U27" t="n">
-        <v>115.4265842713547</v>
+        <v>92.76996646159193</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.76925739572886</v>
       </c>
       <c r="W27" t="n">
-        <v>53.82492005733809</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.433250919797104</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.50462261435212</v>
+        <v>10.50462261435223</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.46895710375825</v>
+        <v>22.46895710375836</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85997048667875</v>
+        <v>10.85997048667886</v>
       </c>
       <c r="U28" t="n">
-        <v>75.77661356237333</v>
+        <v>75.77661356237344</v>
       </c>
       <c r="V28" t="n">
-        <v>32.2293516647764</v>
+        <v>32.22935166477652</v>
       </c>
       <c r="W28" t="n">
-        <v>77.43104356966182</v>
+        <v>77.43104356966194</v>
       </c>
       <c r="X28" t="n">
-        <v>9.039791888569027</v>
+        <v>9.039791888569141</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.261609294494917</v>
+        <v>4.261609294495031</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2075768581598</v>
+        <v>161.2075768581599</v>
       </c>
       <c r="C29" t="n">
         <v>137.3258338615053</v>
@@ -2810,7 +2810,7 @@
         <v>134.0245828902606</v>
       </c>
       <c r="I29" t="n">
-        <v>27.68909408714529</v>
+        <v>27.68909408714533</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.37665917489355</v>
+        <v>14.37665917489358</v>
       </c>
       <c r="T29" t="n">
-        <v>9.536142572010169</v>
+        <v>9.536142572010197</v>
       </c>
       <c r="U29" t="n">
-        <v>37.26996283313596</v>
+        <v>37.26996283313599</v>
       </c>
       <c r="V29" t="n">
         <v>108.0001200894785</v>
@@ -2855,7 +2855,7 @@
         <v>125.0168003060934</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9030507750326</v>
+        <v>146.9030507750327</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4059038987764</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S30" t="n">
         <v>191.4771050246774</v>
       </c>
       <c r="T30" t="n">
-        <v>2.066590025508534</v>
+        <v>97.97928633246316</v>
       </c>
       <c r="U30" t="n">
-        <v>35.6326520260757</v>
+        <v>237.227666829963</v>
       </c>
       <c r="V30" t="n">
-        <v>27.76925739572874</v>
+        <v>27.76925739572877</v>
       </c>
       <c r="W30" t="n">
-        <v>53.82492005733809</v>
+        <v>53.82492005733812</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.433250919797132</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.50462261435214</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.46895710375825</v>
+        <v>22.46895710375828</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85997048667875</v>
+        <v>10.85997048667878</v>
       </c>
       <c r="U31" t="n">
-        <v>75.77661356237333</v>
+        <v>75.77661356237336</v>
       </c>
       <c r="V31" t="n">
-        <v>32.2293516647764</v>
+        <v>32.22935166477643</v>
       </c>
       <c r="W31" t="n">
-        <v>77.43104356966182</v>
+        <v>77.43104356966185</v>
       </c>
       <c r="X31" t="n">
-        <v>9.039791888569027</v>
+        <v>9.039791888569056</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.261609294494917</v>
+        <v>4.261609294494946</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2075768581598</v>
+        <v>161.2075768581599</v>
       </c>
       <c r="C32" t="n">
         <v>137.3258338615053</v>
@@ -3047,7 +3047,7 @@
         <v>134.0245828902606</v>
       </c>
       <c r="I32" t="n">
-        <v>27.6890940871453</v>
+        <v>27.68909408714532</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.37665917489355</v>
+        <v>14.37665917489358</v>
       </c>
       <c r="T32" t="n">
-        <v>9.536142572010169</v>
+        <v>9.536142572010192</v>
       </c>
       <c r="U32" t="n">
-        <v>37.26996283313596</v>
+        <v>37.26996283313599</v>
       </c>
       <c r="V32" t="n">
         <v>108.0001200894785</v>
@@ -3092,7 +3092,7 @@
         <v>125.0168003060934</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9030507750326</v>
+        <v>146.9030507750327</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4059038987764</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4771050246774</v>
       </c>
       <c r="T33" t="n">
-        <v>2.066590025508534</v>
+        <v>2.066590025508563</v>
       </c>
       <c r="U33" t="n">
-        <v>24.34800331028951</v>
+        <v>237.227666829963</v>
       </c>
       <c r="V33" t="n">
-        <v>27.76925739572874</v>
+        <v>27.76925739572877</v>
       </c>
       <c r="W33" t="n">
-        <v>53.82492005733809</v>
+        <v>53.82492005733812</v>
       </c>
       <c r="X33" t="n">
-        <v>90.588909322996</v>
+        <v>94.25777256609578</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.50462261435214</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.46895710375825</v>
+        <v>22.46895710375828</v>
       </c>
       <c r="T34" t="n">
-        <v>10.85997048667875</v>
+        <v>10.85997048667878</v>
       </c>
       <c r="U34" t="n">
-        <v>75.77661356237333</v>
+        <v>75.77661356237336</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2293516647764</v>
+        <v>32.22935166477643</v>
       </c>
       <c r="W34" t="n">
-        <v>77.43104356966182</v>
+        <v>77.43104356966185</v>
       </c>
       <c r="X34" t="n">
-        <v>9.039791888569027</v>
+        <v>9.039791888569056</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.261609294494917</v>
+        <v>4.261609294494946</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.72344065084</v>
+        <v>139.7234406508399</v>
       </c>
       <c r="C35" t="n">
-        <v>115.8416976541855</v>
+        <v>115.8416976541854</v>
       </c>
       <c r="D35" t="n">
-        <v>103.408359915234</v>
+        <v>103.4083599152339</v>
       </c>
       <c r="E35" t="n">
         <v>137.1151123346428</v>
       </c>
       <c r="F35" t="n">
-        <v>168.8354499130202</v>
+        <v>168.8354499130201</v>
       </c>
       <c r="G35" t="n">
-        <v>184.4629339876517</v>
+        <v>184.4629339876516</v>
       </c>
       <c r="H35" t="n">
-        <v>112.5404466829408</v>
+        <v>112.5404466829407</v>
       </c>
       <c r="I35" t="n">
-        <v>6.204957879825486</v>
+        <v>6.2049578798254</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>15.78582662581616</v>
+        <v>15.78582662581607</v>
       </c>
       <c r="V35" t="n">
-        <v>86.51598388215871</v>
+        <v>86.51598388215862</v>
       </c>
       <c r="W35" t="n">
-        <v>103.5326640987736</v>
+        <v>103.5326640987735</v>
       </c>
       <c r="X35" t="n">
-        <v>125.4189145677128</v>
+        <v>125.4189145677127</v>
       </c>
       <c r="Y35" t="n">
-        <v>147.9217676914566</v>
+        <v>147.9217676914565</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4771050246774</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>73.45190087340106</v>
+        <v>2.86386710296962</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>79.19742961935138</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9848208964384417</v>
+        <v>0.9848208964383569</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.29247735505352</v>
+        <v>54.29247735505344</v>
       </c>
       <c r="V37" t="n">
-        <v>10.7452154574566</v>
+        <v>10.74521545745651</v>
       </c>
       <c r="W37" t="n">
-        <v>55.94690736234202</v>
+        <v>55.94690736234193</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.72344065084</v>
+        <v>139.7234406508399</v>
       </c>
       <c r="C38" t="n">
-        <v>115.8416976541855</v>
+        <v>115.8416976541854</v>
       </c>
       <c r="D38" t="n">
-        <v>103.408359915234</v>
+        <v>103.4083599152339</v>
       </c>
       <c r="E38" t="n">
         <v>137.1151123346428</v>
       </c>
       <c r="F38" t="n">
-        <v>168.8354499130202</v>
+        <v>168.8354499130201</v>
       </c>
       <c r="G38" t="n">
-        <v>184.4629339876517</v>
+        <v>184.4629339876516</v>
       </c>
       <c r="H38" t="n">
-        <v>112.5404466829408</v>
+        <v>112.5404466829407</v>
       </c>
       <c r="I38" t="n">
-        <v>6.204957879825486</v>
+        <v>6.2049578798254</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>15.78582662581616</v>
+        <v>15.78582662581607</v>
       </c>
       <c r="V38" t="n">
-        <v>86.51598388215871</v>
+        <v>86.51598388215862</v>
       </c>
       <c r="W38" t="n">
-        <v>103.5326640987736</v>
+        <v>103.5326640987735</v>
       </c>
       <c r="X38" t="n">
-        <v>125.4189145677128</v>
+        <v>125.4189145677127</v>
       </c>
       <c r="Y38" t="n">
-        <v>147.9217676914566</v>
+        <v>147.9217676914565</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.946253545182</v>
       </c>
       <c r="U39" t="n">
-        <v>237.227666829963</v>
+        <v>2.86386710296962</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>6.285121188408851</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>32.3407838500182</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>100.9850935452106</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.97472844110371</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9848208964384417</v>
+        <v>0.9848208964383569</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>54.29247735505352</v>
+        <v>54.29247735505344</v>
       </c>
       <c r="V40" t="n">
-        <v>10.7452154574566</v>
+        <v>10.74521545745651</v>
       </c>
       <c r="W40" t="n">
-        <v>55.94690736234202</v>
+        <v>55.94690736234193</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.7234406508399</v>
+        <v>139.72344065084</v>
       </c>
       <c r="C41" t="n">
-        <v>115.8416976541854</v>
+        <v>115.8416976541855</v>
       </c>
       <c r="D41" t="n">
-        <v>103.4083599152339</v>
+        <v>103.408359915234</v>
       </c>
       <c r="E41" t="n">
-        <v>137.1151123346427</v>
+        <v>137.1151123346429</v>
       </c>
       <c r="F41" t="n">
-        <v>168.8354499130201</v>
+        <v>168.8354499130202</v>
       </c>
       <c r="G41" t="n">
-        <v>184.4629339876516</v>
+        <v>184.4629339876517</v>
       </c>
       <c r="H41" t="n">
-        <v>112.5404466829407</v>
+        <v>112.5404466829408</v>
       </c>
       <c r="I41" t="n">
-        <v>6.204957879825372</v>
+        <v>6.204957879825514</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>15.78582662581604</v>
+        <v>15.78582662581618</v>
       </c>
       <c r="V41" t="n">
-        <v>86.51598388215859</v>
+        <v>86.51598388215874</v>
       </c>
       <c r="W41" t="n">
-        <v>103.5326640987735</v>
+        <v>103.5326640987736</v>
       </c>
       <c r="X41" t="n">
-        <v>125.4189145677127</v>
+        <v>125.4189145677128</v>
       </c>
       <c r="Y41" t="n">
-        <v>147.9217676914565</v>
+        <v>147.9217676914566</v>
       </c>
     </row>
     <row r="42">
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>132.4162837607474</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.946253545182</v>
       </c>
       <c r="U42" t="n">
-        <v>2.863867102969591</v>
+        <v>2.863867102969734</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>32.34078385001817</v>
+        <v>32.34078385001831</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>105.2170983790414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.984820896438328</v>
+        <v>0.9848208964384706</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.29247735505341</v>
+        <v>54.29247735505355</v>
       </c>
       <c r="V43" t="n">
-        <v>10.74521545745648</v>
+        <v>10.74521545745662</v>
       </c>
       <c r="W43" t="n">
-        <v>55.9469073623419</v>
+        <v>55.94690736234205</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>15.78582662581597</v>
+        <v>15.78582662581604</v>
       </c>
       <c r="V44" t="n">
         <v>86.51598388215859</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4771050246774</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.946253545182</v>
       </c>
       <c r="U45" t="n">
         <v>2.863867102969591</v>
@@ -4116,13 +4116,13 @@
         <v>6.285121188408823</v>
       </c>
       <c r="W45" t="n">
-        <v>32.34078385001817</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>177.8985559964621</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>107.5837592733301</v>
       </c>
     </row>
     <row r="46">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.984820896438328</v>
+        <v>0.9848208964383285</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.600552637409</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="C11" t="n">
-        <v>233.600552637409</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="D11" t="n">
-        <v>198.7491562889423</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="E11" t="n">
-        <v>198.7491562889423</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="F11" t="n">
-        <v>198.7491562889423</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="G11" t="n">
-        <v>119.830050668196</v>
+        <v>31.42414431565985</v>
       </c>
       <c r="H11" t="n">
-        <v>40.91094504744973</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="I11" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="J11" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="K11" t="n">
-        <v>6.250393165163104</v>
+        <v>31.9658223826865</v>
       </c>
       <c r="L11" t="n">
-        <v>54.75838278395181</v>
+        <v>80.47381200147521</v>
       </c>
       <c r="M11" t="n">
-        <v>132.1069982028452</v>
+        <v>157.8224274203689</v>
       </c>
       <c r="N11" t="n">
-        <v>209.4556136217389</v>
+        <v>235.1710428392625</v>
       </c>
       <c r="O11" t="n">
-        <v>245.5843590654959</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="P11" t="n">
-        <v>245.5843590654959</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.5487400999973</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="R11" t="n">
-        <v>312.5196582581552</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="S11" t="n">
-        <v>312.5196582581552</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="T11" t="n">
-        <v>312.5196582581552</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="U11" t="n">
-        <v>312.5196582581552</v>
+        <v>268.1814611778993</v>
       </c>
       <c r="V11" t="n">
-        <v>312.5196582581552</v>
+        <v>189.2623555571529</v>
       </c>
       <c r="W11" t="n">
-        <v>312.5196582581552</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="X11" t="n">
-        <v>233.600552637409</v>
+        <v>110.3432499364064</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.600552637409</v>
+        <v>110.3432499364064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="C12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="D12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="E12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="F12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="G12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="H12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="I12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="J12" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="K12" t="n">
-        <v>45.19216840222403</v>
+        <v>45.19216840222404</v>
       </c>
       <c r="L12" t="n">
-        <v>45.19216840222403</v>
+        <v>80.47381200147521</v>
       </c>
       <c r="M12" t="n">
-        <v>80.47381200147498</v>
+        <v>80.47381200147521</v>
       </c>
       <c r="N12" t="n">
-        <v>157.8224274203684</v>
+        <v>157.8224274203689</v>
       </c>
       <c r="O12" t="n">
-        <v>235.1710428392618</v>
+        <v>235.1710428392625</v>
       </c>
       <c r="P12" t="n">
-        <v>312.5196582581552</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="Q12" t="n">
-        <v>312.5196582581552</v>
+        <v>306.3699868837562</v>
       </c>
       <c r="R12" t="n">
-        <v>233.600552637409</v>
+        <v>306.3699868837562</v>
       </c>
       <c r="S12" t="n">
-        <v>233.600552637409</v>
+        <v>306.3699868837562</v>
       </c>
       <c r="T12" t="n">
-        <v>224.8213179890989</v>
+        <v>297.5907522354462</v>
       </c>
       <c r="U12" t="n">
-        <v>193.5356052753535</v>
+        <v>218.6716466146997</v>
       </c>
       <c r="V12" t="n">
-        <v>148.2041954426643</v>
+        <v>139.7525409939532</v>
       </c>
       <c r="W12" t="n">
-        <v>87.14381934806173</v>
+        <v>60.83343537320673</v>
       </c>
       <c r="X12" t="n">
-        <v>75.97401813986423</v>
+        <v>23.55289305472915</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.67151825029803</v>
+        <v>6.250393165163123</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="C13" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="D13" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="E13" t="n">
-        <v>6.250393165163104</v>
+        <v>70.18327649598207</v>
       </c>
       <c r="F13" t="n">
-        <v>72.90504289982245</v>
+        <v>70.18327649598207</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0886187931788</v>
+        <v>70.18327649598207</v>
       </c>
       <c r="H13" t="n">
-        <v>150.1598935335152</v>
+        <v>70.18327649598207</v>
       </c>
       <c r="I13" t="n">
-        <v>191.3004859368295</v>
+        <v>70.18327649598207</v>
       </c>
       <c r="J13" t="n">
-        <v>268.6491013557229</v>
+        <v>147.5318919148757</v>
       </c>
       <c r="K13" t="n">
-        <v>268.6491013557229</v>
+        <v>147.5318919148757</v>
       </c>
       <c r="L13" t="n">
-        <v>268.6491013557229</v>
+        <v>224.8805073337693</v>
       </c>
       <c r="M13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="N13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="O13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="P13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="Q13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="R13" t="n">
-        <v>277.2036971539986</v>
+        <v>277.2036971539982</v>
       </c>
       <c r="S13" t="n">
-        <v>247.8160109114969</v>
+        <v>247.8160109114967</v>
       </c>
       <c r="T13" t="n">
         <v>230.1545737771563</v>
       </c>
       <c r="U13" t="n">
-        <v>151.23546815641</v>
+        <v>151.2354681564098</v>
       </c>
       <c r="V13" t="n">
-        <v>111.9887975088395</v>
+        <v>111.9887975088394</v>
       </c>
       <c r="W13" t="n">
-        <v>33.0696918880932</v>
+        <v>33.06969188809287</v>
       </c>
       <c r="X13" t="n">
-        <v>17.24681899426749</v>
+        <v>17.24681899426734</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.250393165163104</v>
+        <v>6.250393165163123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198.7491562889427</v>
+        <v>154.6814470166631</v>
       </c>
       <c r="C14" t="n">
-        <v>198.7491562889427</v>
+        <v>75.76234139591661</v>
       </c>
       <c r="D14" t="n">
-        <v>198.7491562889427</v>
+        <v>75.76234139591661</v>
       </c>
       <c r="E14" t="n">
-        <v>198.7491562889427</v>
+        <v>75.76234139591661</v>
       </c>
       <c r="F14" t="n">
-        <v>198.7491562889427</v>
+        <v>75.76234139591661</v>
       </c>
       <c r="G14" t="n">
-        <v>119.8300506681962</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="H14" t="n">
-        <v>40.91094504744973</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="I14" t="n">
         <v>6.250393165163123</v>
       </c>
       <c r="J14" t="n">
-        <v>73.18569235782314</v>
+        <v>31.9658223826865</v>
       </c>
       <c r="K14" t="n">
-        <v>73.18569235782314</v>
+        <v>31.9658223826865</v>
       </c>
       <c r="L14" t="n">
-        <v>121.6936819766119</v>
+        <v>80.47381200147521</v>
       </c>
       <c r="M14" t="n">
-        <v>199.0422973955055</v>
+        <v>157.8224274203689</v>
       </c>
       <c r="N14" t="n">
-        <v>276.3909128143991</v>
+        <v>235.1710428392625</v>
       </c>
       <c r="O14" t="n">
         <v>312.5196582581561</v>
@@ -5303,25 +5303,25 @@
         <v>312.5196582581561</v>
       </c>
       <c r="S14" t="n">
-        <v>291.306010327639</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="T14" t="n">
-        <v>274.981773107105</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="U14" t="n">
-        <v>230.6435760268481</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="V14" t="n">
-        <v>198.7491562889427</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="W14" t="n">
-        <v>198.7491562889427</v>
+        <v>233.6005526374096</v>
       </c>
       <c r="X14" t="n">
-        <v>198.7491562889427</v>
+        <v>154.6814470166631</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7491562889427</v>
+        <v>154.6814470166631</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.0308374080747</v>
+        <v>18.93415108784134</v>
       </c>
       <c r="C15" t="n">
-        <v>142.0308374080747</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="D15" t="n">
-        <v>142.0308374080747</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="E15" t="n">
-        <v>85.16949878590962</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="F15" t="n">
-        <v>85.16949878590962</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="G15" t="n">
-        <v>85.16949878590962</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="H15" t="n">
-        <v>85.16949878590962</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="I15" t="n">
         <v>6.250393165163123</v>
@@ -5361,10 +5361,10 @@
         <v>6.250393165163123</v>
       </c>
       <c r="L15" t="n">
-        <v>83.59900858405676</v>
+        <v>80.47381200147521</v>
       </c>
       <c r="M15" t="n">
-        <v>83.59900858405676</v>
+        <v>157.8224274203689</v>
       </c>
       <c r="N15" t="n">
         <v>157.8224274203689</v>
@@ -5391,16 +5391,16 @@
         <v>266.3050395217007</v>
       </c>
       <c r="V15" t="n">
-        <v>231.5635146004409</v>
+        <v>187.3859339009542</v>
       </c>
       <c r="W15" t="n">
-        <v>170.5031385058384</v>
+        <v>126.3255578063516</v>
       </c>
       <c r="X15" t="n">
-        <v>159.3333372976409</v>
+        <v>115.1557565981541</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.0308374080747</v>
+        <v>97.85325670858785</v>
       </c>
     </row>
     <row r="16">
@@ -5425,58 +5425,58 @@
         <v>6.250393165163123</v>
       </c>
       <c r="G16" t="n">
-        <v>6.250393165163123</v>
+        <v>43.43396905851946</v>
       </c>
       <c r="H16" t="n">
-        <v>6.250393165163123</v>
+        <v>43.43396905851946</v>
       </c>
       <c r="I16" t="n">
-        <v>6.250393165163123</v>
+        <v>84.57456146183368</v>
       </c>
       <c r="J16" t="n">
-        <v>6.250393165163123</v>
+        <v>84.57456146183368</v>
       </c>
       <c r="K16" t="n">
-        <v>6.250393165163123</v>
+        <v>84.57456146183368</v>
       </c>
       <c r="L16" t="n">
-        <v>6.250393165163123</v>
+        <v>161.9231768807273</v>
       </c>
       <c r="M16" t="n">
-        <v>6.250393165163123</v>
+        <v>199.8550817351056</v>
       </c>
       <c r="N16" t="n">
-        <v>83.59900858405676</v>
+        <v>199.8550817351056</v>
       </c>
       <c r="O16" t="n">
-        <v>160.9476240029504</v>
+        <v>199.8550817351056</v>
       </c>
       <c r="P16" t="n">
-        <v>199.8550817351054</v>
+        <v>277.2036971539992</v>
       </c>
       <c r="Q16" t="n">
-        <v>277.203697153999</v>
+        <v>277.2036971539992</v>
       </c>
       <c r="R16" t="n">
-        <v>277.203697153999</v>
+        <v>277.2036971539992</v>
       </c>
       <c r="S16" t="n">
-        <v>247.8160109114974</v>
+        <v>247.8160109114975</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1545737771568</v>
+        <v>230.1545737771569</v>
       </c>
       <c r="U16" t="n">
         <v>151.2354681564103</v>
       </c>
       <c r="V16" t="n">
-        <v>111.9887975088397</v>
+        <v>111.9887975088398</v>
       </c>
       <c r="W16" t="n">
-        <v>33.06969188809322</v>
+        <v>33.06969188809327</v>
       </c>
       <c r="X16" t="n">
-        <v>17.24681899426751</v>
+        <v>17.24681899426754</v>
       </c>
       <c r="Y16" t="n">
         <v>6.250393165163123</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.8814651544617</v>
+        <v>207.8814651544621</v>
       </c>
       <c r="C17" t="n">
-        <v>195.1638351593566</v>
+        <v>195.1638351593572</v>
       </c>
       <c r="D17" t="n">
-        <v>195.0051321732934</v>
+        <v>195.0051321732939</v>
       </c>
       <c r="E17" t="n">
-        <v>160.7992045211607</v>
+        <v>160.7992045211612</v>
       </c>
       <c r="F17" t="n">
-        <v>94.55253184036394</v>
+        <v>94.55253184036428</v>
       </c>
       <c r="G17" t="n">
         <v>15.63342621961707</v>
@@ -5543,7 +5543,7 @@
         <v>245.5843590654961</v>
       </c>
       <c r="T17" t="n">
-        <v>245.5843590654961</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="U17" t="n">
         <v>312.5196582581561</v>
@@ -5552,13 +5552,13 @@
         <v>312.5196582581561</v>
       </c>
       <c r="W17" t="n">
-        <v>312.2353954907398</v>
+        <v>312.2353954907401</v>
       </c>
       <c r="X17" t="n">
-        <v>289.8438090173241</v>
+        <v>289.8438090173246</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.7220678734603</v>
+        <v>244.7220678734608</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>6.250393165163123</v>
       </c>
       <c r="K18" t="n">
-        <v>45.19216840222405</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="L18" t="n">
-        <v>122.5407838211177</v>
+        <v>83.59900858405676</v>
       </c>
       <c r="M18" t="n">
-        <v>199.8893992400113</v>
+        <v>157.8224274203689</v>
       </c>
       <c r="N18" t="n">
         <v>235.1710428392625</v>
@@ -5616,16 +5616,16 @@
         <v>312.5196582581561</v>
       </c>
       <c r="R18" t="n">
-        <v>312.5196582581561</v>
+        <v>243.0077100274027</v>
       </c>
       <c r="S18" t="n">
-        <v>312.5196582581561</v>
+        <v>243.0077100274027</v>
       </c>
       <c r="T18" t="n">
         <v>243.0077100274027</v>
       </c>
       <c r="U18" t="n">
-        <v>243.0077100274027</v>
+        <v>164.0886044066561</v>
       </c>
       <c r="V18" t="n">
         <v>164.0886044066561</v>
@@ -5634,7 +5634,7 @@
         <v>85.16949878590962</v>
       </c>
       <c r="X18" t="n">
-        <v>6.250393165163123</v>
+        <v>85.16949878590962</v>
       </c>
       <c r="Y18" t="n">
         <v>6.250393165163123</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.881465154462</v>
+        <v>207.8814651544618</v>
       </c>
       <c r="C20" t="n">
-        <v>195.163835159357</v>
+        <v>195.1638351593568</v>
       </c>
       <c r="D20" t="n">
-        <v>195.0051321732938</v>
+        <v>195.0051321732935</v>
       </c>
       <c r="E20" t="n">
-        <v>160.799204521161</v>
+        <v>160.7992045211608</v>
       </c>
       <c r="F20" t="n">
-        <v>94.55253184036411</v>
+        <v>94.55253184036383</v>
       </c>
       <c r="G20" t="n">
-        <v>15.63342621961706</v>
+        <v>15.63342621961731</v>
       </c>
       <c r="H20" t="n">
         <v>6.250393165163123</v>
@@ -5750,52 +5750,52 @@
         <v>6.250393165163123</v>
       </c>
       <c r="J20" t="n">
-        <v>56.61778488171917</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="K20" t="n">
-        <v>56.61778488171917</v>
+        <v>73.18569235782314</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1257745005079</v>
+        <v>121.6936819766119</v>
       </c>
       <c r="M20" t="n">
-        <v>182.4743899194015</v>
+        <v>199.0422973955055</v>
       </c>
       <c r="N20" t="n">
-        <v>259.8230053382952</v>
+        <v>276.3909128143991</v>
       </c>
       <c r="O20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="P20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="R20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="S20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="T20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="U20" t="n">
-        <v>295.9517507820522</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="V20" t="n">
         <v>312.5196582581561</v>
       </c>
       <c r="W20" t="n">
-        <v>312.2353954907399</v>
+        <v>312.2353954907398</v>
       </c>
       <c r="X20" t="n">
-        <v>289.8438090173244</v>
+        <v>289.8438090173242</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.7220678734606</v>
+        <v>244.7220678734604</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.67151825029805</v>
+        <v>85.16949878590962</v>
       </c>
       <c r="C21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="D21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="E21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="F21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="G21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="H21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="I21" t="n">
-        <v>58.67151825029805</v>
+        <v>6.250393165163123</v>
       </c>
       <c r="J21" t="n">
         <v>6.250393165163123</v>
       </c>
       <c r="K21" t="n">
-        <v>45.19216840222405</v>
+        <v>45.19216840222404</v>
       </c>
       <c r="L21" t="n">
+        <v>45.19216840222404</v>
+      </c>
+      <c r="M21" t="n">
         <v>122.5407838211177</v>
-      </c>
-      <c r="M21" t="n">
-        <v>157.8224274203689</v>
       </c>
       <c r="N21" t="n">
         <v>157.8224274203689</v>
@@ -5850,31 +5850,31 @@
         <v>312.5196582581561</v>
       </c>
       <c r="Q21" t="n">
-        <v>306.3699868837562</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="R21" t="n">
-        <v>227.4508812630096</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5317756422631</v>
+        <v>312.5196582581561</v>
       </c>
       <c r="T21" t="n">
-        <v>69.61267002151664</v>
+        <v>233.6005526374096</v>
       </c>
       <c r="U21" t="n">
-        <v>58.67151825029805</v>
+        <v>154.6814470166631</v>
       </c>
       <c r="V21" t="n">
-        <v>58.67151825029805</v>
+        <v>154.6814470166631</v>
       </c>
       <c r="W21" t="n">
-        <v>58.67151825029805</v>
+        <v>85.16949878590962</v>
       </c>
       <c r="X21" t="n">
-        <v>58.67151825029805</v>
+        <v>85.16949878590962</v>
       </c>
       <c r="Y21" t="n">
-        <v>58.67151825029805</v>
+        <v>85.16949878590962</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>207.881465154462</v>
+        <v>207.8814651544623</v>
       </c>
       <c r="C23" t="n">
-        <v>195.1638351593567</v>
+        <v>195.1638351593571</v>
       </c>
       <c r="D23" t="n">
-        <v>195.0051321732935</v>
+        <v>195.0051321732939</v>
       </c>
       <c r="E23" t="n">
-        <v>160.7992045211608</v>
+        <v>160.7992045211612</v>
       </c>
       <c r="F23" t="n">
-        <v>94.55253184036411</v>
+        <v>94.55253184036445</v>
       </c>
       <c r="G23" t="n">
-        <v>15.63342621961706</v>
+        <v>15.63342621961707</v>
       </c>
       <c r="H23" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="I23" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="J23" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="K23" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="L23" t="n">
-        <v>54.75838278395183</v>
+        <v>54.75838278395184</v>
       </c>
       <c r="M23" t="n">
-        <v>132.1069982028455</v>
+        <v>132.1069982028456</v>
       </c>
       <c r="N23" t="n">
-        <v>209.4556136217391</v>
+        <v>209.4556136217393</v>
       </c>
       <c r="O23" t="n">
-        <v>245.5843590654961</v>
+        <v>245.5843590654963</v>
       </c>
       <c r="P23" t="n">
-        <v>245.5843590654961</v>
+        <v>245.5843590654963</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.5843590654961</v>
+        <v>245.5843590654963</v>
       </c>
       <c r="R23" t="n">
-        <v>245.5843590654961</v>
+        <v>245.5843590654963</v>
       </c>
       <c r="S23" t="n">
-        <v>245.5843590654961</v>
+        <v>295.9517507820525</v>
       </c>
       <c r="T23" t="n">
-        <v>245.5843590654961</v>
+        <v>295.9517507820525</v>
       </c>
       <c r="U23" t="n">
-        <v>295.9517507820522</v>
+        <v>295.9517507820525</v>
       </c>
       <c r="V23" t="n">
-        <v>312.5196582581561</v>
+        <v>312.5196582581565</v>
       </c>
       <c r="W23" t="n">
-        <v>312.2353954907398</v>
+        <v>312.2353954907402</v>
       </c>
       <c r="X23" t="n">
-        <v>289.8438090173245</v>
+        <v>289.8438090173246</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.7220678734606</v>
+        <v>244.7220678734608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>233.6005526374096</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="C24" t="n">
-        <v>154.6814470166631</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="D24" t="n">
-        <v>75.76234139591662</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="E24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="F24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="G24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="H24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="I24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="J24" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="K24" t="n">
         <v>45.19216840222405</v>
       </c>
       <c r="L24" t="n">
-        <v>45.19216840222405</v>
+        <v>80.4738120014753</v>
       </c>
       <c r="M24" t="n">
-        <v>80.47381200147521</v>
+        <v>157.822427420369</v>
       </c>
       <c r="N24" t="n">
-        <v>157.8224274203689</v>
+        <v>235.1710428392628</v>
       </c>
       <c r="O24" t="n">
-        <v>235.1710428392625</v>
+        <v>235.1710428392628</v>
       </c>
       <c r="P24" t="n">
-        <v>312.5196582581561</v>
+        <v>312.5196582581565</v>
       </c>
       <c r="Q24" t="n">
-        <v>312.5196582581561</v>
+        <v>306.3699868837565</v>
       </c>
       <c r="R24" t="n">
-        <v>312.5196582581561</v>
+        <v>306.3699868837565</v>
       </c>
       <c r="S24" t="n">
-        <v>312.5196582581561</v>
+        <v>227.4508812630099</v>
       </c>
       <c r="T24" t="n">
-        <v>312.5196582581561</v>
+        <v>227.4508812630099</v>
       </c>
       <c r="U24" t="n">
-        <v>312.5196582581561</v>
+        <v>227.4508812630099</v>
       </c>
       <c r="V24" t="n">
-        <v>312.5196582581561</v>
+        <v>164.0886044066563</v>
       </c>
       <c r="W24" t="n">
-        <v>312.5196582581561</v>
+        <v>85.16949878590972</v>
       </c>
       <c r="X24" t="n">
-        <v>312.5196582581561</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="Y24" t="n">
-        <v>312.5196582581561</v>
+        <v>6.25039316516313</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="C25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="D25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="E25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="F25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="G25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="H25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="I25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="J25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="K25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="L25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="M25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="N25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="O25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="P25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="R25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="S25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="T25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="U25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="V25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="W25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="X25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.250393165163123</v>
+        <v>6.25039316516313</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1024.770393886715</v>
       </c>
       <c r="C26" t="n">
-        <v>886.0574303902451</v>
+        <v>886.0574303902449</v>
       </c>
       <c r="D26" t="n">
-        <v>759.903393902817</v>
+        <v>759.9033939028167</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7021327493194</v>
+        <v>599.7021327493189</v>
       </c>
       <c r="F26" t="n">
-        <v>407.4601265671578</v>
+        <v>407.4601265671572</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4327829358732</v>
+        <v>199.4327829358727</v>
       </c>
       <c r="H26" t="n">
-        <v>64.05441638005442</v>
+        <v>64.05441638005453</v>
       </c>
       <c r="I26" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7838815398654</v>
+        <v>171.7838815398653</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3153922903048</v>
+        <v>377.3153922903045</v>
       </c>
       <c r="L26" t="n">
-        <v>636.5742487935703</v>
+        <v>636.57424879357</v>
       </c>
       <c r="M26" t="n">
-        <v>930.1755603024387</v>
+        <v>930.175560302439</v>
       </c>
       <c r="N26" t="n">
         <v>1218.275042605809</v>
@@ -6242,13 +6242,13 @@
         <v>1465.154654934043</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.592997571294</v>
+        <v>1662.592997571295</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.752201780639</v>
+        <v>1785.75220178064</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.281723692352</v>
+        <v>1804.281723692353</v>
       </c>
       <c r="S26" t="n">
         <v>1789.759845737914</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>370.0765546351885</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C27" t="n">
-        <v>370.0765546351885</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="D27" t="n">
-        <v>370.0765546351885</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="E27" t="n">
-        <v>196.513350756603</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="F27" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="G27" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="H27" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="I27" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J27" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="K27" t="n">
         <v>75.02740971090796</v>
@@ -6324,31 +6324,31 @@
         <v>801.2936140329184</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.2936140329184</v>
+        <v>795.1439426585184</v>
       </c>
       <c r="R27" t="n">
-        <v>801.2936140329184</v>
+        <v>659.4471844876489</v>
       </c>
       <c r="S27" t="n">
-        <v>801.2936140329184</v>
+        <v>659.4471844876489</v>
       </c>
       <c r="T27" t="n">
-        <v>799.2061493606876</v>
+        <v>657.359719815418</v>
       </c>
       <c r="U27" t="n">
-        <v>682.6136399956829</v>
+        <v>563.6526829855271</v>
       </c>
       <c r="V27" t="n">
-        <v>439.533921899317</v>
+        <v>535.6029280403465</v>
       </c>
       <c r="W27" t="n">
-        <v>385.1653157807937</v>
+        <v>266.2043587706378</v>
       </c>
       <c r="X27" t="n">
-        <v>380.6872845486754</v>
+        <v>46.69636438733415</v>
       </c>
       <c r="Y27" t="n">
-        <v>370.0765546351885</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C28" t="n">
-        <v>36.08563447384704</v>
+        <v>82.04389219607108</v>
       </c>
       <c r="D28" t="n">
-        <v>36.08563447384704</v>
+        <v>82.04389219607108</v>
       </c>
       <c r="E28" t="n">
-        <v>36.08563447384704</v>
+        <v>82.04389219607108</v>
       </c>
       <c r="F28" t="n">
-        <v>36.08563447384704</v>
+        <v>82.04389219607108</v>
       </c>
       <c r="G28" t="n">
-        <v>36.08563447384704</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="H28" t="n">
-        <v>36.08563447384704</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="I28" t="n">
-        <v>83.6092349678854</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="J28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="K28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="L28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="M28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="N28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="O28" t="n">
-        <v>175.6820421256078</v>
+        <v>117.0256369012868</v>
       </c>
       <c r="P28" t="n">
-        <v>175.6820421256078</v>
+        <v>270.4970865650726</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.9134686355652</v>
+        <v>270.4970865650726</v>
       </c>
       <c r="R28" t="n">
-        <v>270.4970865650718</v>
+        <v>270.4970865650726</v>
       </c>
       <c r="S28" t="n">
-        <v>247.8011702986493</v>
+        <v>247.80117029865</v>
       </c>
       <c r="T28" t="n">
-        <v>236.831503140388</v>
+        <v>236.8315031403885</v>
       </c>
       <c r="U28" t="n">
-        <v>160.2894692390008</v>
+        <v>160.2894692390012</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7345685675094</v>
+        <v>127.7345685675098</v>
       </c>
       <c r="W28" t="n">
-        <v>49.52139324461871</v>
+        <v>49.52139324461894</v>
       </c>
       <c r="X28" t="n">
-        <v>40.39029032687221</v>
+        <v>40.39029032687233</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.770393886715</v>
+        <v>1024.770393886716</v>
       </c>
       <c r="C29" t="n">
-        <v>886.0574303902447</v>
+        <v>886.0574303902455</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9033939028167</v>
+        <v>759.9033939028174</v>
       </c>
       <c r="E29" t="n">
-        <v>599.702132749319</v>
+        <v>599.7021327493197</v>
       </c>
       <c r="F29" t="n">
-        <v>407.4601265671574</v>
+        <v>407.4601265671581</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4327829358731</v>
+        <v>199.4327829358737</v>
       </c>
       <c r="H29" t="n">
-        <v>64.05441638005442</v>
+        <v>64.05441638005482</v>
       </c>
       <c r="I29" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7838815398654</v>
+        <v>171.783881539865</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3153922903042</v>
+        <v>377.3153922903043</v>
       </c>
       <c r="L29" t="n">
         <v>636.5742487935697</v>
@@ -6485,7 +6485,7 @@
         <v>1785.752201780639</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.281723692352</v>
+        <v>1804.281723692353</v>
       </c>
       <c r="S29" t="n">
         <v>1789.759845737914</v>
@@ -6494,7 +6494,7 @@
         <v>1780.127378493459</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.480951389281</v>
+        <v>1742.480951389282</v>
       </c>
       <c r="V29" t="n">
         <v>1633.389920995869</v>
@@ -6503,10 +6503,10 @@
         <v>1507.110324727088</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.723404752307</v>
+        <v>1358.723404752308</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.606330107078</v>
+        <v>1187.606330107079</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="D30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="E30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="F30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="G30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="H30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="I30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="K30" t="n">
         <v>75.02740971090796</v>
@@ -6561,31 +6561,31 @@
         <v>801.2936140329184</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.1439426585184</v>
+        <v>801.2936140329184</v>
       </c>
       <c r="R30" t="n">
-        <v>795.1439426585184</v>
+        <v>665.5968558620489</v>
       </c>
       <c r="S30" t="n">
-        <v>601.7327254618746</v>
+        <v>472.185638665405</v>
       </c>
       <c r="T30" t="n">
-        <v>599.6452607896438</v>
+        <v>373.2166625720079</v>
       </c>
       <c r="U30" t="n">
-        <v>563.6526829855269</v>
+        <v>133.5927566831563</v>
       </c>
       <c r="V30" t="n">
-        <v>535.6029280403463</v>
+        <v>105.5430017379757</v>
       </c>
       <c r="W30" t="n">
-        <v>481.234321921823</v>
+        <v>51.17439561945238</v>
       </c>
       <c r="X30" t="n">
-        <v>261.7263275385194</v>
+        <v>46.69636438733406</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C31" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="F31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="I31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="K31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="L31" t="n">
-        <v>103.1056776101202</v>
+        <v>83.91461269036384</v>
       </c>
       <c r="M31" t="n">
-        <v>185.2656600551144</v>
+        <v>270.497086565072</v>
       </c>
       <c r="N31" t="n">
-        <v>185.2656600551144</v>
+        <v>270.497086565072</v>
       </c>
       <c r="O31" t="n">
-        <v>185.2656600551144</v>
+        <v>270.497086565072</v>
       </c>
       <c r="P31" t="n">
-        <v>185.2656600551144</v>
+        <v>270.497086565072</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.4970865650718</v>
+        <v>270.497086565072</v>
       </c>
       <c r="R31" t="n">
-        <v>270.4970865650718</v>
+        <v>270.497086565072</v>
       </c>
       <c r="S31" t="n">
-        <v>247.8011702986493</v>
+        <v>247.8011702986495</v>
       </c>
       <c r="T31" t="n">
-        <v>236.831503140388</v>
+        <v>236.8315031403881</v>
       </c>
       <c r="U31" t="n">
-        <v>160.2894692390008</v>
+        <v>160.2894692390009</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7345685675094</v>
+        <v>127.7345685675095</v>
       </c>
       <c r="W31" t="n">
-        <v>49.52139324461871</v>
+        <v>49.52139324461876</v>
       </c>
       <c r="X31" t="n">
-        <v>40.39029032687221</v>
+        <v>40.39029032687225</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.770393886716</v>
+        <v>1024.770393886714</v>
       </c>
       <c r="C32" t="n">
-        <v>886.0574303902458</v>
+        <v>886.0574303902442</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9033939028177</v>
+        <v>759.9033939028161</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7021327493201</v>
+        <v>599.7021327493185</v>
       </c>
       <c r="F32" t="n">
-        <v>407.4601265671585</v>
+        <v>407.4601265671568</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4327829358741</v>
+        <v>199.4327829358731</v>
       </c>
       <c r="H32" t="n">
-        <v>64.05441638005442</v>
+        <v>64.05441638005445</v>
       </c>
       <c r="I32" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7838815398653</v>
+        <v>171.7838815398654</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3153922903045</v>
+        <v>377.3153922903047</v>
       </c>
       <c r="L32" t="n">
-        <v>636.5742487935701</v>
+        <v>636.5742487935702</v>
       </c>
       <c r="M32" t="n">
-        <v>930.1755603024392</v>
+        <v>930.1755603024394</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.275042605809</v>
+        <v>1218.27504260581</v>
       </c>
       <c r="O32" t="n">
         <v>1465.154654934043</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.592997571294</v>
+        <v>1662.592997571295</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.752201780639</v>
+        <v>1785.75220178064</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.281723692352</v>
+        <v>1804.281723692353</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.759845737914</v>
+        <v>1789.759845737915</v>
       </c>
       <c r="T32" t="n">
         <v>1780.12737849346</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.480951389282</v>
+        <v>1742.480951389281</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.38992099587</v>
+        <v>1633.389920995868</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.110324727088</v>
+        <v>1507.110324727087</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.723404752308</v>
+        <v>1358.723404752307</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.606330107079</v>
+        <v>1187.606330107078</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.513350756603</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C33" t="n">
-        <v>196.513350756603</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="D33" t="n">
-        <v>196.513350756603</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="E33" t="n">
-        <v>196.513350756603</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="F33" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="G33" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="H33" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="I33" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J33" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="K33" t="n">
         <v>75.02740971090796</v>
@@ -6798,31 +6798,31 @@
         <v>801.2936140329184</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.2936140329184</v>
+        <v>795.1439426585184</v>
       </c>
       <c r="R33" t="n">
-        <v>801.2936140329184</v>
+        <v>659.4471844876489</v>
       </c>
       <c r="S33" t="n">
-        <v>801.2936140329184</v>
+        <v>466.035967291005</v>
       </c>
       <c r="T33" t="n">
-        <v>799.2061493606876</v>
+        <v>463.9485026187742</v>
       </c>
       <c r="U33" t="n">
-        <v>774.6122066230214</v>
+        <v>224.3245967299226</v>
       </c>
       <c r="V33" t="n">
-        <v>746.5624516778408</v>
+        <v>196.2748417847421</v>
       </c>
       <c r="W33" t="n">
-        <v>692.1938455593175</v>
+        <v>141.9062356662187</v>
       </c>
       <c r="X33" t="n">
-        <v>600.6898967482105</v>
+        <v>46.69636438733406</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.0492036835381</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="C34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="D34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="E34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="F34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="G34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="H34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="I34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="J34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="K34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="L34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
       <c r="M34" t="n">
-        <v>36.08563447384704</v>
+        <v>75.32380606404308</v>
       </c>
       <c r="N34" t="n">
-        <v>36.08563447384704</v>
+        <v>270.497086565072</v>
       </c>
       <c r="O34" t="n">
-        <v>210.4504326735222</v>
+        <v>270.497086565072</v>
       </c>
       <c r="P34" t="n">
-        <v>270.4970865650718</v>
+        <v>270.497086565072</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.4970865650718</v>
+        <v>270.497086565072</v>
       </c>
       <c r="R34" t="n">
-        <v>270.4970865650718</v>
+        <v>270.497086565072</v>
       </c>
       <c r="S34" t="n">
-        <v>247.8011702986493</v>
+        <v>247.8011702986495</v>
       </c>
       <c r="T34" t="n">
-        <v>236.831503140388</v>
+        <v>236.8315031403881</v>
       </c>
       <c r="U34" t="n">
-        <v>160.2894692390008</v>
+        <v>160.2894692390009</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7345685675094</v>
+        <v>127.7345685675095</v>
       </c>
       <c r="W34" t="n">
-        <v>49.52139324461871</v>
+        <v>49.52139324461876</v>
       </c>
       <c r="X34" t="n">
-        <v>40.39029032687221</v>
+        <v>40.39029032687225</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.08563447384704</v>
+        <v>36.08563447384705</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>866.611966932421</v>
+        <v>866.6119669324212</v>
       </c>
       <c r="C35" t="n">
-        <v>749.6001511201122</v>
+        <v>749.6001511201123</v>
       </c>
       <c r="D35" t="n">
-        <v>645.1472623168455</v>
+        <v>645.1472623168457</v>
       </c>
       <c r="E35" t="n">
-        <v>506.6471488475093</v>
+        <v>506.6471488475096</v>
       </c>
       <c r="F35" t="n">
-        <v>336.1062903495091</v>
+        <v>336.1062903495094</v>
       </c>
       <c r="G35" t="n">
-        <v>149.7800944023862</v>
+        <v>149.7800944023866</v>
       </c>
       <c r="H35" t="n">
-        <v>36.10287553072989</v>
+        <v>36.10287553072979</v>
       </c>
       <c r="I35" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J35" t="n">
-        <v>186.8027832199489</v>
+        <v>186.802783219949</v>
       </c>
       <c r="K35" t="n">
-        <v>361.0860776138109</v>
+        <v>413.603588815635</v>
       </c>
       <c r="L35" t="n">
-        <v>409.5940672325996</v>
+        <v>580.5088587969245</v>
       </c>
       <c r="M35" t="n">
-        <v>492.444511856992</v>
+        <v>895.3794651510403</v>
       </c>
       <c r="N35" t="n">
-        <v>801.813289005609</v>
+        <v>1204.748242299657</v>
       </c>
       <c r="O35" t="n">
-        <v>1069.962196179089</v>
+        <v>1472.897149473138</v>
       </c>
       <c r="P35" t="n">
-        <v>1288.669833661587</v>
+        <v>1472.897149473138</v>
       </c>
       <c r="Q35" t="n">
-        <v>1433.098332716179</v>
+        <v>1472.897149473138</v>
       </c>
       <c r="R35" t="n">
         <v>1472.897149473138</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J36" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K36" t="n">
-        <v>68.77701654574486</v>
+        <v>68.77701654574484</v>
       </c>
       <c r="L36" t="n">
         <v>187.4255814001299</v>
@@ -7041,25 +7041,25 @@
         <v>795.0432208677553</v>
       </c>
       <c r="S36" t="n">
-        <v>795.0432208677553</v>
+        <v>601.6320036711114</v>
       </c>
       <c r="T36" t="n">
-        <v>795.0432208677553</v>
+        <v>601.6320036711114</v>
       </c>
       <c r="U36" t="n">
-        <v>720.8493816016936</v>
+        <v>598.7392086176068</v>
       </c>
       <c r="V36" t="n">
-        <v>477.7696635053277</v>
+        <v>518.7418049616963</v>
       </c>
       <c r="W36" t="n">
-        <v>208.371094235619</v>
+        <v>249.3432356919876</v>
       </c>
       <c r="X36" t="n">
-        <v>208.371094235619</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="Y36" t="n">
-        <v>208.371094235619</v>
+        <v>29.83524130868393</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G37" t="n">
-        <v>39.694574731261</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H37" t="n">
-        <v>39.694574731261</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I37" t="n">
-        <v>39.694574731261</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J37" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K37" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="L37" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="M37" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="N37" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="O37" t="n">
-        <v>153.03667673423</v>
+        <v>153.0366767342296</v>
       </c>
       <c r="P37" t="n">
-        <v>153.03667673423</v>
+        <v>153.0366767342296</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.03667673423</v>
+        <v>153.0366767342296</v>
       </c>
       <c r="R37" t="n">
-        <v>153.03667673423</v>
+        <v>153.0366767342296</v>
       </c>
       <c r="S37" t="n">
-        <v>152.0419081519689</v>
+        <v>152.0419081519687</v>
       </c>
       <c r="T37" t="n">
-        <v>152.0419081519689</v>
+        <v>152.0419081519687</v>
       </c>
       <c r="U37" t="n">
-        <v>97.20102193474315</v>
+        <v>97.20102193474297</v>
       </c>
       <c r="V37" t="n">
-        <v>86.34726894741326</v>
+        <v>86.34726894741316</v>
       </c>
       <c r="W37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="X37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.83524130868394</v>
+        <v>29.83524130868393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>866.6119669324206</v>
+        <v>866.6119669324215</v>
       </c>
       <c r="C38" t="n">
-        <v>749.6001511201121</v>
+        <v>749.600151120113</v>
       </c>
       <c r="D38" t="n">
-        <v>645.1472623168454</v>
+        <v>645.1472623168461</v>
       </c>
       <c r="E38" t="n">
-        <v>506.6471488475092</v>
+        <v>506.6471488475096</v>
       </c>
       <c r="F38" t="n">
-        <v>336.1062903495092</v>
+        <v>336.1062903495094</v>
       </c>
       <c r="G38" t="n">
-        <v>149.7800944023873</v>
+        <v>149.7800944023866</v>
       </c>
       <c r="H38" t="n">
-        <v>36.10287553072987</v>
+        <v>36.10287553072979</v>
       </c>
       <c r="I38" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J38" t="n">
-        <v>186.8027832199489</v>
+        <v>186.802783219949</v>
       </c>
       <c r="K38" t="n">
-        <v>413.6035888156349</v>
+        <v>186.802783219949</v>
       </c>
       <c r="L38" t="n">
-        <v>694.131740164147</v>
+        <v>467.3309345684611</v>
       </c>
       <c r="M38" t="n">
-        <v>1009.002346518263</v>
+        <v>782.2015409225769</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.37112366688</v>
+        <v>1091.570318071194</v>
       </c>
       <c r="O38" t="n">
-        <v>1354.499869110637</v>
+        <v>1221.427097495782</v>
       </c>
       <c r="P38" t="n">
-        <v>1354.499869110637</v>
+        <v>1440.13473497828</v>
       </c>
       <c r="Q38" t="n">
-        <v>1433.098332716178</v>
+        <v>1440.13473497828</v>
       </c>
       <c r="R38" t="n">
-        <v>1472.897149473137</v>
+        <v>1479.93355173524</v>
       </c>
       <c r="S38" t="n">
-        <v>1479.933551735239</v>
+        <v>1479.93355173524</v>
       </c>
       <c r="T38" t="n">
-        <v>1491.762065434196</v>
+        <v>1491.762065434197</v>
       </c>
       <c r="U38" t="n">
         <v>1475.81678601418</v>
@@ -7211,13 +7211,13 @@
         <v>1388.426903304929</v>
       </c>
       <c r="W38" t="n">
-        <v>1283.848454720309</v>
+        <v>1283.84845472031</v>
       </c>
       <c r="X38" t="n">
-        <v>1157.16268242969</v>
+        <v>1157.162682429691</v>
       </c>
       <c r="Y38" t="n">
-        <v>1007.746755468623</v>
+        <v>1007.746755468624</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J39" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K39" t="n">
         <v>68.77701654574484</v>
@@ -7281,22 +7281,22 @@
         <v>795.0432208677553</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0432208677553</v>
+        <v>577.9257930443391</v>
       </c>
       <c r="U39" t="n">
-        <v>555.4193149789037</v>
+        <v>575.0329979908345</v>
       </c>
       <c r="V39" t="n">
-        <v>312.3395968825378</v>
+        <v>568.6843907298154</v>
       </c>
       <c r="W39" t="n">
-        <v>42.94102761282909</v>
+        <v>536.0169322954536</v>
       </c>
       <c r="X39" t="n">
-        <v>42.94102761282909</v>
+        <v>434.0117873002914</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.83524130868392</v>
+        <v>208.371094235619</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.3848540993488</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="L40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="M40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="N40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="O40" t="n">
-        <v>153.03667673423</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="P40" t="n">
-        <v>153.03667673423</v>
+        <v>36.01803131559082</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.03667673423</v>
+        <v>142.5187526707949</v>
       </c>
       <c r="R40" t="n">
-        <v>153.03667673423</v>
+        <v>142.5187526707949</v>
       </c>
       <c r="S40" t="n">
-        <v>152.0419081519689</v>
+        <v>141.523984088534</v>
       </c>
       <c r="T40" t="n">
-        <v>152.0419081519689</v>
+        <v>152.0419081519687</v>
       </c>
       <c r="U40" t="n">
-        <v>97.20102193474314</v>
+        <v>97.20102193474297</v>
       </c>
       <c r="V40" t="n">
-        <v>86.34726894741324</v>
+        <v>86.34726894741316</v>
       </c>
       <c r="W40" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="X40" t="n">
-        <v>42.1551421842472</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.20544382794384</v>
+        <v>29.83524130868393</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>866.6119669324214</v>
+        <v>866.6119669324207</v>
       </c>
       <c r="C41" t="n">
-        <v>749.6001511201126</v>
+        <v>749.6001511201119</v>
       </c>
       <c r="D41" t="n">
-        <v>645.1472623168461</v>
+        <v>645.1472623168453</v>
       </c>
       <c r="E41" t="n">
-        <v>506.64714884751</v>
+        <v>506.647148847509</v>
       </c>
       <c r="F41" t="n">
-        <v>336.1062903495099</v>
+        <v>336.1062903495088</v>
       </c>
       <c r="G41" t="n">
-        <v>149.7800944023871</v>
+        <v>149.7800944023858</v>
       </c>
       <c r="H41" t="n">
-        <v>36.10287553072975</v>
+        <v>36.1028755307299</v>
       </c>
       <c r="I41" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J41" t="n">
-        <v>186.802783219949</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K41" t="n">
-        <v>186.802783219949</v>
+        <v>129.0659158840872</v>
       </c>
       <c r="L41" t="n">
-        <v>467.3309345684612</v>
+        <v>409.5940672325993</v>
       </c>
       <c r="M41" t="n">
-        <v>782.201540922577</v>
+        <v>492.4445118569917</v>
       </c>
       <c r="N41" t="n">
-        <v>1052.698366696389</v>
+        <v>801.8132890056087</v>
       </c>
       <c r="O41" t="n">
-        <v>1088.827112140146</v>
+        <v>1069.962196179089</v>
       </c>
       <c r="P41" t="n">
-        <v>1307.534749622644</v>
+        <v>1288.669833661587</v>
       </c>
       <c r="Q41" t="n">
-        <v>1451.963248677236</v>
+        <v>1433.098332716178</v>
       </c>
       <c r="R41" t="n">
-        <v>1491.762065434196</v>
+        <v>1472.897149473138</v>
       </c>
       <c r="S41" t="n">
-        <v>1491.762065434196</v>
+        <v>1479.93355173524</v>
       </c>
       <c r="T41" t="n">
-        <v>1491.762065434196</v>
+        <v>1491.762065434197</v>
       </c>
       <c r="U41" t="n">
         <v>1475.81678601418</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.6153575476522</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="C42" t="n">
-        <v>190.6153575476522</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="D42" t="n">
-        <v>29.83524130868392</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="E42" t="n">
-        <v>29.83524130868392</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="F42" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G42" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H42" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I42" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J42" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K42" t="n">
         <v>68.77701654574484</v>
@@ -7512,28 +7512,28 @@
         <v>795.0432208677553</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0432208677553</v>
+        <v>659.3464626968857</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0432208677553</v>
+        <v>659.3464626968857</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0432208677553</v>
+        <v>442.2290348734695</v>
       </c>
       <c r="U42" t="n">
-        <v>792.1504258142506</v>
+        <v>439.3362398199648</v>
       </c>
       <c r="V42" t="n">
-        <v>549.0707077178847</v>
+        <v>196.2565217235988</v>
       </c>
       <c r="W42" t="n">
-        <v>516.4032492835229</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="X42" t="n">
-        <v>296.8952549002192</v>
+        <v>163.5890632892369</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.6153575476522</v>
+        <v>163.5890632892369</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.88554295238067</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C43" t="n">
-        <v>46.88554295238067</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D43" t="n">
-        <v>46.88554295238067</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E43" t="n">
-        <v>46.88554295238067</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="L43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="M43" t="n">
-        <v>141.368091285842</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="N43" t="n">
-        <v>141.368091285842</v>
+        <v>153.0366767342301</v>
       </c>
       <c r="O43" t="n">
-        <v>141.368091285842</v>
+        <v>153.0366767342301</v>
       </c>
       <c r="P43" t="n">
-        <v>141.368091285842</v>
+        <v>153.0366767342301</v>
       </c>
       <c r="Q43" t="n">
-        <v>141.368091285842</v>
+        <v>153.0366767342301</v>
       </c>
       <c r="R43" t="n">
-        <v>142.5187526707948</v>
+        <v>153.0366767342301</v>
       </c>
       <c r="S43" t="n">
-        <v>141.5239840885338</v>
+        <v>152.041908151969</v>
       </c>
       <c r="T43" t="n">
-        <v>152.0419081519686</v>
+        <v>152.041908151969</v>
       </c>
       <c r="U43" t="n">
-        <v>97.20102193474291</v>
+        <v>97.2010219347432</v>
       </c>
       <c r="V43" t="n">
-        <v>86.34726894741313</v>
+        <v>86.34726894741327</v>
       </c>
       <c r="W43" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="X43" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.88554295238067</v>
+        <v>29.83524130868393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>866.6119669324214</v>
+        <v>866.6119669324216</v>
       </c>
       <c r="C44" t="n">
-        <v>749.600151120113</v>
+        <v>749.6001511201132</v>
       </c>
       <c r="D44" t="n">
-        <v>645.1472623168463</v>
+        <v>645.1472623168465</v>
       </c>
       <c r="E44" t="n">
-        <v>506.6471488475099</v>
+        <v>506.6471488475101</v>
       </c>
       <c r="F44" t="n">
-        <v>336.1062903495098</v>
+        <v>336.10629034951</v>
       </c>
       <c r="G44" t="n">
-        <v>149.780094402387</v>
+        <v>149.7800944023872</v>
       </c>
       <c r="H44" t="n">
-        <v>36.10287553072975</v>
+        <v>36.10287553072976</v>
       </c>
       <c r="I44" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J44" t="n">
-        <v>186.802783219949</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K44" t="n">
-        <v>413.6035888156351</v>
+        <v>256.6360469043699</v>
       </c>
       <c r="L44" t="n">
-        <v>694.1317401641472</v>
+        <v>421.4225809315552</v>
       </c>
       <c r="M44" t="n">
-        <v>776.9821847885396</v>
+        <v>504.2730255559476</v>
       </c>
       <c r="N44" t="n">
-        <v>854.3308002074332</v>
+        <v>813.6418027045647</v>
       </c>
       <c r="O44" t="n">
-        <v>1122.479707380914</v>
+        <v>1081.790709878045</v>
       </c>
       <c r="P44" t="n">
-        <v>1341.187344863411</v>
+        <v>1300.498347360543</v>
       </c>
       <c r="Q44" t="n">
-        <v>1451.963248677236</v>
+        <v>1444.926846415135</v>
       </c>
       <c r="R44" t="n">
-        <v>1491.762065434196</v>
+        <v>1484.725663172095</v>
       </c>
       <c r="S44" t="n">
-        <v>1491.762065434196</v>
+        <v>1491.762065434197</v>
       </c>
       <c r="T44" t="n">
-        <v>1491.762065434196</v>
+        <v>1491.762065434197</v>
       </c>
       <c r="U44" t="n">
         <v>1475.81678601418</v>
@@ -7688,10 +7688,10 @@
         <v>1283.84845472031</v>
       </c>
       <c r="X44" t="n">
-        <v>1157.16268242969</v>
+        <v>1157.162682429691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1007.746755468623</v>
+        <v>1007.746755468624</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>380.0276318146884</v>
+        <v>190.6153575476522</v>
       </c>
       <c r="C45" t="n">
         <v>190.6153575476522</v>
       </c>
       <c r="D45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J45" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K45" t="n">
         <v>68.77701654574484</v>
@@ -7752,25 +7752,25 @@
         <v>795.0432208677553</v>
       </c>
       <c r="S45" t="n">
-        <v>601.6320036711114</v>
+        <v>795.0432208677553</v>
       </c>
       <c r="T45" t="n">
-        <v>601.6320036711114</v>
+        <v>577.9257930443391</v>
       </c>
       <c r="U45" t="n">
-        <v>598.7392086176068</v>
+        <v>575.0329979908345</v>
       </c>
       <c r="V45" t="n">
-        <v>592.3906013565878</v>
+        <v>568.6843907298155</v>
       </c>
       <c r="W45" t="n">
-        <v>559.723142922226</v>
+        <v>299.2858214601068</v>
       </c>
       <c r="X45" t="n">
-        <v>380.0276318146884</v>
+        <v>299.2858214601068</v>
       </c>
       <c r="Y45" t="n">
-        <v>380.0276318146884</v>
+        <v>190.6153575476522</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="C46" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="D46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="E46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="F46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="G46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="H46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="I46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="J46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="K46" t="n">
-        <v>118.1245792902038</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="L46" t="n">
-        <v>118.1245792902038</v>
+        <v>153.0366767342295</v>
       </c>
       <c r="M46" t="n">
         <v>153.0366767342295</v>
@@ -7843,13 +7843,13 @@
         <v>86.34726894741313</v>
       </c>
       <c r="W46" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="X46" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.83524130868392</v>
+        <v>29.83524130868393</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>285.7273664654778</v>
+        <v>285.727366465478</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.457508550192</v>
+        <v>156.0955323878195</v>
       </c>
       <c r="M12" t="n">
-        <v>152.3523363483745</v>
+        <v>116.7143125107472</v>
       </c>
       <c r="N12" t="n">
-        <v>180.1771997571981</v>
+        <v>180.1771997571984</v>
       </c>
       <c r="O12" t="n">
-        <v>198.86521380123</v>
+        <v>198.8652138012303</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8552230976238</v>
+        <v>198.855223097624</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,13 +9009,13 @@
         <v>132.0383470820692</v>
       </c>
       <c r="L15" t="n">
-        <v>198.5874231147311</v>
+        <v>195.4306588899012</v>
       </c>
       <c r="M15" t="n">
-        <v>116.7143125107472</v>
+        <v>194.8442270752863</v>
       </c>
       <c r="N15" t="n">
-        <v>177.0204355323685</v>
+        <v>102.0472851926593</v>
       </c>
       <c r="O15" t="n">
         <v>198.8652138012303</v>
@@ -9243,16 +9243,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0383470820692</v>
       </c>
       <c r="L18" t="n">
         <v>198.5874231147311</v>
       </c>
       <c r="M18" t="n">
-        <v>194.8442270752863</v>
+        <v>191.6874628504564</v>
       </c>
       <c r="N18" t="n">
-        <v>137.6853090302868</v>
+        <v>180.1771997571984</v>
       </c>
       <c r="O18" t="n">
         <v>120.7352992366912</v>
@@ -9483,13 +9483,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>198.5874231147311</v>
+        <v>120.457508550192</v>
       </c>
       <c r="M21" t="n">
-        <v>152.3523363483746</v>
+        <v>194.8442270752863</v>
       </c>
       <c r="N21" t="n">
-        <v>102.0472851926593</v>
+        <v>137.6853090302868</v>
       </c>
       <c r="O21" t="n">
         <v>198.8652138012303</v>
@@ -9644,10 +9644,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>285.727366465478</v>
+        <v>285.7273664654781</v>
       </c>
       <c r="N23" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189658</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9720,19 +9720,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>120.457508550192</v>
+        <v>156.0955323878196</v>
       </c>
       <c r="M24" t="n">
-        <v>152.3523363483746</v>
+        <v>194.8442270752863</v>
       </c>
       <c r="N24" t="n">
-        <v>180.1771997571984</v>
+        <v>180.1771997571985</v>
       </c>
       <c r="O24" t="n">
-        <v>198.8652138012303</v>
+        <v>120.7352992366912</v>
       </c>
       <c r="P24" t="n">
-        <v>198.855223097624</v>
+        <v>198.8552230976242</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.8324291344782</v>
+        <v>167.8324291344781</v>
       </c>
       <c r="C11" t="n">
-        <v>143.9506861378237</v>
+        <v>143.9506861378236</v>
       </c>
       <c r="D11" t="n">
-        <v>97.0144660138902</v>
+        <v>131.517348398872</v>
       </c>
       <c r="E11" t="n">
-        <v>165.2241008182811</v>
+        <v>165.2241008182809</v>
       </c>
       <c r="F11" t="n">
-        <v>196.9444383966584</v>
+        <v>196.9444383966582</v>
       </c>
       <c r="G11" t="n">
-        <v>134.4420079067511</v>
+        <v>134.4420079067507</v>
       </c>
       <c r="H11" t="n">
-        <v>62.51952060204023</v>
+        <v>115.7274215275871</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.31394636346355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.00151145121198</v>
+        <v>21.0015114512118</v>
       </c>
       <c r="T11" t="n">
-        <v>16.16099484832859</v>
+        <v>16.16099484832842</v>
       </c>
       <c r="U11" t="n">
-        <v>43.89481510945438</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>114.6249723657969</v>
+        <v>36.49505780125773</v>
       </c>
       <c r="W11" t="n">
-        <v>131.6416525824118</v>
+        <v>53.5117380178726</v>
       </c>
       <c r="X11" t="n">
-        <v>75.39798848681224</v>
+        <v>153.5279030513509</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.0307561750948</v>
+        <v>176.0307561750946</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.271551274152941</v>
+        <v>4.271551274152543</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>5.925981281441437</v>
+        <v>5.92598128144104</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.8324291344782</v>
+        <v>167.8324291344783</v>
       </c>
       <c r="C14" t="n">
-        <v>143.9506861378237</v>
+        <v>65.82077157328473</v>
       </c>
       <c r="D14" t="n">
         <v>131.5173483988722</v>
@@ -23507,13 +23507,13 @@
         <v>196.9444383966584</v>
       </c>
       <c r="G14" t="n">
-        <v>134.4420079067509</v>
+        <v>143.755093722844</v>
       </c>
       <c r="H14" t="n">
-        <v>62.51952060204</v>
+        <v>140.6494351665791</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.31394636346375</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>21.001511451212</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.16099484832862</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>43.89481510945441</v>
       </c>
       <c r="V14" t="n">
-        <v>83.04949682527068</v>
+        <v>114.624972365797</v>
       </c>
       <c r="W14" t="n">
-        <v>131.6416525824118</v>
+        <v>53.5117380178728</v>
       </c>
       <c r="X14" t="n">
-        <v>153.527903051351</v>
+        <v>75.39798848681204</v>
       </c>
       <c r="Y14" t="n">
         <v>176.0307561750948</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.271551274152714</v>
+        <v>4.271551274152742</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>5.92598128144121</v>
+        <v>5.925981281441238</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.08177546408124</v>
+        <v>3.081775464081247</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.081775464081289</v>
+        <v>3.081775464081247</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.08177546408124</v>
+        <v>3.081775464081147</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>706306.8275941489</v>
+        <v>706306.8275941493</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>859883.6952970484</v>
+      </c>
+      <c r="C2" t="n">
         <v>859883.695297048</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>859883.6952970481</v>
       </c>
-      <c r="D2" t="n">
-        <v>859883.6952970483</v>
-      </c>
       <c r="E2" t="n">
+        <v>741349.1016856184</v>
+      </c>
+      <c r="F2" t="n">
         <v>741349.1016856185</v>
       </c>
-      <c r="F2" t="n">
-        <v>741349.1016856184</v>
-      </c>
       <c r="G2" t="n">
+        <v>861386.4085433055</v>
+      </c>
+      <c r="H2" t="n">
         <v>861386.4085433054</v>
       </c>
-      <c r="H2" t="n">
-        <v>861386.4085433052</v>
-      </c>
       <c r="I2" t="n">
-        <v>861386.4085433056</v>
+        <v>861386.4085433054</v>
       </c>
       <c r="J2" t="n">
-        <v>861625.5851370741</v>
+        <v>861625.5851370735</v>
       </c>
       <c r="K2" t="n">
-        <v>861625.5851370739</v>
+        <v>861625.5851370736</v>
       </c>
       <c r="L2" t="n">
         <v>861625.5851370739</v>
       </c>
       <c r="M2" t="n">
-        <v>861625.5851370735</v>
+        <v>861625.5851370733</v>
       </c>
       <c r="N2" t="n">
-        <v>861625.5851370738</v>
+        <v>861625.5851370736</v>
       </c>
       <c r="O2" t="n">
-        <v>861625.5851370738</v>
+        <v>861625.5851370736</v>
       </c>
       <c r="P2" t="n">
-        <v>861625.5851370733</v>
+        <v>861625.5851370732</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271899.2097394629</v>
+        <v>271899.2097394631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>162793.1933237193</v>
+        <v>162793.1933237194</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105088.1859541357</v>
       </c>
       <c r="M3" t="n">
-        <v>17187.30896585585</v>
+        <v>17187.30896585594</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.54486160319</v>
+        <v>65215.54486160306</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>498984.6759847553</v>
       </c>
       <c r="E4" t="n">
-        <v>393864.3891703238</v>
+        <v>393864.3891703239</v>
       </c>
       <c r="F4" t="n">
-        <v>393864.3891703238</v>
+        <v>393864.3891703237</v>
       </c>
       <c r="G4" t="n">
         <v>464050.0237913313</v>
@@ -26445,13 +26445,13 @@
         <v>465609.891632028</v>
       </c>
       <c r="L4" t="n">
-        <v>465609.8916320281</v>
+        <v>465609.891632028</v>
       </c>
       <c r="M4" t="n">
-        <v>465258.5872919705</v>
+        <v>465258.5872919706</v>
       </c>
       <c r="N4" t="n">
-        <v>465258.5872919705</v>
+        <v>465258.5872919706</v>
       </c>
       <c r="O4" t="n">
         <v>465258.5872919706</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24357.50288690618</v>
+        <v>24357.50288690621</v>
       </c>
       <c r="F5" t="n">
-        <v>24357.5028869062</v>
+        <v>24357.50288690619</v>
       </c>
       <c r="G5" t="n">
         <v>35400.82626812899</v>
@@ -26491,7 +26491,7 @@
         <v>35400.82626812899</v>
       </c>
       <c r="J5" t="n">
-        <v>47589.23098752379</v>
+        <v>47589.23098752378</v>
       </c>
       <c r="K5" t="n">
         <v>47589.23098752379</v>
@@ -26503,13 +26503,13 @@
         <v>44645.082028813</v>
       </c>
       <c r="N5" t="n">
+        <v>44645.082028813</v>
+      </c>
+      <c r="O5" t="n">
         <v>44645.08202881299</v>
       </c>
-      <c r="O5" t="n">
-        <v>44645.082028813</v>
-      </c>
       <c r="P5" t="n">
-        <v>44645.082028813</v>
+        <v>44645.08202881301</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327271.4193122927</v>
+        <v>327266.9529280879</v>
       </c>
       <c r="C6" t="n">
-        <v>327271.4193122927</v>
+        <v>327266.9529280874</v>
       </c>
       <c r="D6" t="n">
-        <v>327271.419312293</v>
+        <v>327266.9529280876</v>
       </c>
       <c r="E6" t="n">
-        <v>51227.99988892567</v>
+        <v>50919.59864930612</v>
       </c>
       <c r="F6" t="n">
-        <v>323127.2096283883</v>
+        <v>322818.8083887696</v>
       </c>
       <c r="G6" t="n">
-        <v>256847.3725297093</v>
+        <v>256846.7592563921</v>
       </c>
       <c r="H6" t="n">
-        <v>361935.5584838449</v>
+        <v>361934.9452105277</v>
       </c>
       <c r="I6" t="n">
-        <v>361935.5584838453</v>
+        <v>361934.9452105277</v>
       </c>
       <c r="J6" t="n">
-        <v>185633.269193803</v>
+        <v>185633.2691938023</v>
       </c>
       <c r="K6" t="n">
-        <v>348426.462517522</v>
+        <v>348426.4625175219</v>
       </c>
       <c r="L6" t="n">
         <v>243338.2765633863</v>
       </c>
       <c r="M6" t="n">
-        <v>334534.6068504342</v>
+        <v>334534.6068504337</v>
       </c>
       <c r="N6" t="n">
-        <v>351721.9158162903</v>
+        <v>351721.9158162901</v>
       </c>
       <c r="O6" t="n">
         <v>286506.370954687</v>
       </c>
       <c r="P6" t="n">
-        <v>351721.9158162897</v>
+        <v>351721.9158162895</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="F2" t="n">
         <v>206.2548112433551</v>
@@ -26707,7 +26707,7 @@
         <v>337.6150436860247</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="K2" t="n">
         <v>212.8796635196735</v>
@@ -26716,13 +26716,13 @@
         <v>212.8796635196735</v>
       </c>
       <c r="M2" t="n">
+        <v>234.3637997269934</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234.3637997269934</v>
+      </c>
+      <c r="O2" t="n">
         <v>234.3637997269933</v>
-      </c>
-      <c r="N2" t="n">
-        <v>234.3637997269933</v>
-      </c>
-      <c r="O2" t="n">
-        <v>234.3637997269934</v>
       </c>
       <c r="P2" t="n">
         <v>234.3637997269934</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="F4" t="n">
         <v>78.12991456453904</v>
@@ -26808,28 +26808,28 @@
         <v>78.12991456453904</v>
       </c>
       <c r="I4" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="J4" t="n">
-        <v>451.0704309230881</v>
+        <v>451.0704309230882</v>
       </c>
       <c r="K4" t="n">
-        <v>451.0704309230881</v>
+        <v>451.0704309230882</v>
       </c>
       <c r="L4" t="n">
-        <v>451.0704309230881</v>
+        <v>451.0704309230882</v>
       </c>
       <c r="M4" t="n">
-        <v>372.9405163585492</v>
+        <v>372.9405163585491</v>
       </c>
       <c r="N4" t="n">
-        <v>372.940516358549</v>
+        <v>372.9405163585491</v>
       </c>
       <c r="O4" t="n">
-        <v>372.940516358549</v>
+        <v>372.9405163585491</v>
       </c>
       <c r="P4" t="n">
-        <v>372.940516358549</v>
+        <v>372.9405163585491</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3602324426696</v>
+        <v>131.3602324426697</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51943107700387</v>
+        <v>81.51943107700393</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3602324426696</v>
+        <v>131.3602324426697</v>
       </c>
       <c r="M2" t="n">
-        <v>21.48413620731981</v>
+        <v>21.48413620731992</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51943107700399</v>
+        <v>81.51943107700382</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>372.940516358549</v>
+        <v>372.9405163585491</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3602324426696</v>
+        <v>131.3602324426697</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51943107700387</v>
+        <v>81.51943107700393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="C11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="D11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="F11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="G11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="H11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="I11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="J11" t="n">
         <v>75.8107270893519</v>
       </c>
       <c r="K11" t="n">
-        <v>5.272076903068104</v>
+        <v>31.24725793086951</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>41.63623229811785</v>
       </c>
       <c r="P11" t="n">
-        <v>13.44699418911681</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.9960037471042</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R11" t="n">
-        <v>206.2548112433551</v>
+        <v>194.1629747199632</v>
       </c>
       <c r="S11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="T11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="U11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="V11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="W11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="X11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.20987602462208</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S12" t="n">
         <v>191.4771050246774</v>
       </c>
       <c r="T12" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="U12" t="n">
-        <v>206.2548112433551</v>
+        <v>159.097752265424</v>
       </c>
       <c r="V12" t="n">
-        <v>195.7708251810399</v>
+        <v>162.5190063508632</v>
       </c>
       <c r="W12" t="n">
-        <v>206.2548112433551</v>
+        <v>188.5746690124726</v>
       </c>
       <c r="X12" t="n">
-        <v>206.2548112433551</v>
+        <v>180.4051775441778</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
     </row>
     <row r="13">
@@ -28254,34 +28254,34 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="F13" t="n">
-        <v>206.2548112433551</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>206.2548112433551</v>
+        <v>168.6956436743083</v>
       </c>
       <c r="H13" t="n">
-        <v>206.2548112433551</v>
+        <v>165.7787761521062</v>
       </c>
       <c r="I13" t="n">
-        <v>206.2548112433551</v>
+        <v>164.6986573006134</v>
       </c>
       <c r="J13" t="n">
-        <v>198.0067425713614</v>
+        <v>198.0067425713617</v>
       </c>
       <c r="K13" t="n">
         <v>66.43382185419789</v>
       </c>
       <c r="L13" t="n">
-        <v>31.38893889350277</v>
+        <v>109.5188534580418</v>
       </c>
       <c r="M13" t="n">
-        <v>33.05352404852952</v>
+        <v>77.26422508080545</v>
       </c>
       <c r="N13" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O13" t="n">
         <v>36.75360473212288</v>
@@ -28296,25 +28296,25 @@
         <v>203.1992413686567</v>
       </c>
       <c r="S13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="T13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="U13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="V13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="W13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="X13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.2548112433551</v>
+        <v>206.2548112433552</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>206.2548112433551</v>
       </c>
       <c r="J14" t="n">
-        <v>143.4221404152711</v>
+        <v>101.7859081171533</v>
       </c>
       <c r="K14" t="n">
-        <v>5.272076903068104</v>
+        <v>5.272076903068111</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>41.63623229811785</v>
       </c>
       <c r="P14" t="n">
-        <v>13.44699418911681</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.47642694457751</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R14" t="n">
         <v>194.1629747199632</v>
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>98.6205798331267</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>174.9612311809145</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>115.5348466038563</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.6764130810965</v>
       </c>
       <c r="I15" t="n">
-        <v>29.02276675505254</v>
+        <v>107.1526813195916</v>
       </c>
       <c r="J15" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>206.2548112433551</v>
       </c>
       <c r="V15" t="n">
-        <v>206.2548112433551</v>
+        <v>162.5190063508632</v>
       </c>
       <c r="W15" t="n">
         <v>206.2548112433551</v>
@@ -28497,13 +28497,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6956436743083</v>
+        <v>206.2548112433551</v>
       </c>
       <c r="H16" t="n">
         <v>165.7787761521062</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6986573006134</v>
+        <v>206.2548112433551</v>
       </c>
       <c r="J16" t="n">
         <v>119.8768280068226</v>
@@ -28512,22 +28512,22 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L16" t="n">
-        <v>31.38893889350277</v>
+        <v>109.5188534580418</v>
       </c>
       <c r="M16" t="n">
-        <v>24.41251819168541</v>
+        <v>62.72757360014826</v>
       </c>
       <c r="N16" t="n">
-        <v>93.86485030539535</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O16" t="n">
-        <v>114.8835192966619</v>
+        <v>36.75360473212288</v>
       </c>
       <c r="P16" t="n">
-        <v>97.15845954832912</v>
+        <v>135.9879117571561</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9172280741545</v>
+        <v>126.7873135096155</v>
       </c>
       <c r="R16" t="n">
         <v>203.1992413686567</v>
@@ -28588,7 +28588,7 @@
         <v>75.8107270893519</v>
       </c>
       <c r="K17" t="n">
-        <v>5.272076903068104</v>
+        <v>5.272076903068111</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.44699418911681</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.47642694457751</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R17" t="n">
         <v>194.1629747199632</v>
@@ -28615,10 +28615,10 @@
         <v>227.256322694567</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4158060916837</v>
+        <v>290.0272194176029</v>
       </c>
       <c r="U17" t="n">
-        <v>317.7610396787287</v>
+        <v>250.1496263528095</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28664,7 +28664,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J18" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.088174660656001</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3397905891609</v>
+        <v>65.52296184071493</v>
       </c>
       <c r="S18" t="n">
         <v>191.4771050246774</v>
       </c>
       <c r="T18" t="n">
-        <v>146.1294247967361</v>
+        <v>214.946253545182</v>
       </c>
       <c r="U18" t="n">
-        <v>237.227666829963</v>
+        <v>159.097752265424</v>
       </c>
       <c r="V18" t="n">
-        <v>162.5190063508632</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>188.5746690124726</v>
       </c>
       <c r="X18" t="n">
-        <v>139.1829998749316</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>145.2543715694866</v>
       </c>
     </row>
     <row r="19">
@@ -28749,13 +28749,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L19" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M19" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N19" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O19" t="n">
         <v>36.75360473212288</v>
@@ -28822,10 +28822,10 @@
         <v>240.5687576068188</v>
       </c>
       <c r="J20" t="n">
-        <v>126.6868803383984</v>
+        <v>75.8107270893519</v>
       </c>
       <c r="K20" t="n">
-        <v>5.272076903068104</v>
+        <v>72.88349022898733</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.44699418911681</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.47642694457751</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R20" t="n">
         <v>194.1629747199632</v>
@@ -28858,7 +28858,7 @@
         <v>250.1496263528095</v>
       </c>
       <c r="V20" t="n">
-        <v>337.6150436860247</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.6150436860247</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>109.3882369598269</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28901,7 +28901,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R21" t="n">
-        <v>56.20987602462185</v>
+        <v>134.3397905891609</v>
       </c>
       <c r="S21" t="n">
-        <v>113.3471904601384</v>
+        <v>191.4771050246774</v>
       </c>
       <c r="T21" t="n">
         <v>136.816338980643</v>
       </c>
       <c r="U21" t="n">
-        <v>226.3959265764566</v>
+        <v>159.097752265424</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>197.8877548285656</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28986,13 +28986,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L22" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M22" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N22" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O22" t="n">
         <v>36.75360473212288</v>
@@ -29062,7 +29062,7 @@
         <v>75.8107270893519</v>
       </c>
       <c r="K23" t="n">
-        <v>5.272076903068104</v>
+        <v>5.272076903068111</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.44699418911681</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.47642694457751</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R23" t="n">
         <v>194.1629747199632</v>
       </c>
       <c r="S23" t="n">
-        <v>227.256322694567</v>
+        <v>278.1324759436137</v>
       </c>
       <c r="T23" t="n">
         <v>222.4158060916837</v>
       </c>
       <c r="U23" t="n">
-        <v>301.025779601856</v>
+        <v>250.1496263528095</v>
       </c>
       <c r="V23" t="n">
         <v>337.6150436860247</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.6205798331267</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>109.3882369598269</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>81.04240051203951</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>103.0107430913537</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29138,7 +29138,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J24" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.3397905891609</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4771050246774</v>
+        <v>113.3471904601383</v>
       </c>
       <c r="T24" t="n">
         <v>214.946253545182</v>
@@ -29174,13 +29174,13 @@
         <v>237.227666829963</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>177.9202668276122</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>188.5746690124725</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>139.1829998749315</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,13 +29223,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L25" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M25" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N25" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O25" t="n">
         <v>36.75360473212288</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8796635196728</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196743</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
     </row>
     <row r="27">
@@ -29360,10 +29360,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7384839373578</v>
@@ -29375,7 +29375,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J27" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3397905891609</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4771050246774</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="U27" t="n">
-        <v>121.8010825586083</v>
+        <v>144.4577003683711</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8796635196735</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8796635196735</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,61 +29445,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6956436743083</v>
+        <v>204.0307393361423</v>
       </c>
       <c r="H28" t="n">
         <v>165.7787761521062</v>
       </c>
       <c r="I28" t="n">
-        <v>212.7022941632784</v>
+        <v>164.6986573006134</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8796635196735</v>
+        <v>119.8768280068226</v>
       </c>
       <c r="K28" t="n">
         <v>66.43382185419789</v>
       </c>
       <c r="L28" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M28" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N28" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O28" t="n">
         <v>36.75360473212288</v>
       </c>
       <c r="P28" t="n">
-        <v>57.85799719261704</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8796635196735</v>
+        <v>126.7873135096155</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8796635196735</v>
+        <v>203.1992413686567</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196734</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>212.8796635196735</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8796635196729</v>
+        <v>212.8796635196735</v>
       </c>
       <c r="L29" t="n">
         <v>212.8796635196735</v>
@@ -29612,7 +29612,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J30" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3397905891609</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8796635196735</v>
+        <v>116.9669672127189</v>
       </c>
       <c r="U30" t="n">
-        <v>201.5950148038873</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>212.8796635196735</v>
@@ -29654,10 +29654,10 @@
         <v>212.8796635196735</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.8796635196735</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8796635196735</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8796635196735</v>
+        <v>193.4947494593135</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29697,13 +29697,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L31" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M31" t="n">
-        <v>107.4023994492553</v>
+        <v>212.8796635196735</v>
       </c>
       <c r="N31" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O31" t="n">
         <v>36.75360473212288</v>
@@ -29712,7 +29712,7 @@
         <v>57.85799719261704</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8796635196735</v>
+        <v>126.7873135096155</v>
       </c>
       <c r="R31" t="n">
         <v>203.1992413686567</v>
@@ -29779,7 +29779,7 @@
         <v>212.8796635196735</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8796635196735</v>
+        <v>212.8796635196737</v>
       </c>
       <c r="N32" t="n">
         <v>212.8796635196735</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7384839373578</v>
@@ -29849,7 +29849,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J33" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.088174660656001</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3397905891609</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4771050246774</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.8796635196735</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8796635196735</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>212.8796635196735</v>
@@ -29891,10 +29891,10 @@
         <v>212.8796635196735</v>
       </c>
       <c r="X33" t="n">
-        <v>126.7240051164746</v>
+        <v>123.0551418733748</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.8796635196735</v>
       </c>
     </row>
     <row r="34">
@@ -29934,19 +29934,19 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L34" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M34" t="n">
-        <v>24.41251819168541</v>
+        <v>64.04703494945919</v>
       </c>
       <c r="N34" t="n">
-        <v>15.73493574085631</v>
+        <v>212.8796635196735</v>
       </c>
       <c r="O34" t="n">
-        <v>212.8796635196735</v>
+        <v>36.75360473212288</v>
       </c>
       <c r="P34" t="n">
-        <v>118.5111829416571</v>
+        <v>57.85799719261704</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7873135096155</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="C35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="D35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="E35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="F35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="G35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="H35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="I35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="J35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="K35" t="n">
-        <v>181.3158086140398</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>119.5932124873746</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="N35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="O35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="P35" t="n">
-        <v>234.3637997269933</v>
+        <v>13.44699418911682</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.3637997269933</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R35" t="n">
-        <v>234.3637997269933</v>
+        <v>194.1629747199632</v>
       </c>
       <c r="S35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="T35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="U35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="W35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="X35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30086,7 +30086,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J36" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.088174660656001</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R36" t="n">
         <v>134.3397905891609</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4771050246774</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.946253545182</v>
       </c>
       <c r="U36" t="n">
-        <v>163.7757659565619</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>161.4514912960508</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>178.654566323376</v>
+        <v>168.6956436743083</v>
       </c>
       <c r="H37" t="n">
         <v>165.7787761521062</v>
@@ -30165,22 +30165,22 @@
         <v>164.6986573006134</v>
       </c>
       <c r="J37" t="n">
-        <v>234.3637997269933</v>
+        <v>119.8768280068226</v>
       </c>
       <c r="K37" t="n">
         <v>66.43382185419789</v>
       </c>
       <c r="L37" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M37" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N37" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O37" t="n">
-        <v>36.75360473212288</v>
+        <v>161.199499101361</v>
       </c>
       <c r="P37" t="n">
         <v>57.85799719261704</v>
@@ -30192,19 +30192,19 @@
         <v>203.1992413686567</v>
       </c>
       <c r="S37" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="T37" t="n">
         <v>223.7396340063522</v>
       </c>
       <c r="U37" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V37" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="W37" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="C38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="D38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="E38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="F38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="G38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="H38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="I38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="J38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="K38" t="n">
-        <v>234.3637997269933</v>
+        <v>5.272076903068111</v>
       </c>
       <c r="L38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="M38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="N38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>94.67478179881945</v>
       </c>
       <c r="P38" t="n">
-        <v>13.44699418911681</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="Q38" t="n">
-        <v>167.8688144249221</v>
+        <v>88.47642694457753</v>
       </c>
       <c r="R38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="S38" t="n">
-        <v>234.3637997269933</v>
+        <v>227.256322694567</v>
       </c>
       <c r="T38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="U38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="W38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="X38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30323,7 +30323,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J39" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.088174660656001</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R39" t="n">
         <v>134.3397905891609</v>
@@ -30353,22 +30353,22 @@
         <v>191.4771050246774</v>
       </c>
       <c r="T39" t="n">
-        <v>214.946253545182</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>116.32782089426</v>
       </c>
       <c r="Y39" t="n">
-        <v>210.4095576929219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>234.3637997269933</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>204.4893250476099</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30408,46 +30408,46 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L40" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M40" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N40" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O40" t="n">
         <v>36.75360473212288</v>
       </c>
       <c r="P40" t="n">
-        <v>57.85799719261704</v>
+        <v>64.10323962383612</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7873135096155</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="R40" t="n">
         <v>203.1992413686567</v>
       </c>
       <c r="S40" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7396340063522</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="U40" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="V40" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="W40" t="n">
-        <v>234.3637997269933</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="X40" t="n">
-        <v>234.3637997269933</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>234.3637997269933</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="C41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="D41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="E41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="F41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="G41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="H41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="I41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="J41" t="n">
-        <v>234.3637997269934</v>
+        <v>75.8107270893519</v>
       </c>
       <c r="K41" t="n">
-        <v>5.272076903068104</v>
+        <v>105.5050815246876</v>
       </c>
       <c r="L41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="M41" t="n">
-        <v>234.3637997269934</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>195.0992023787059</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="P41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="R41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="S41" t="n">
-        <v>227.256322694567</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4158060916837</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="U41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="W41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="X41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
     </row>
     <row r="42">
@@ -30542,13 +30542,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>26.4071553591809</v>
       </c>
       <c r="G42" t="n">
         <v>148.7384839373578</v>
@@ -30560,7 +30560,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J42" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.088174660656001</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3397905891609</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.4771050246774</v>
       </c>
       <c r="T42" t="n">
-        <v>214.946253545182</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.1671877549842</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>234.3637997269934</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6956436743083</v>
@@ -30645,13 +30645,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L43" t="n">
-        <v>31.38893889350277</v>
+        <v>31.38893889350278</v>
       </c>
       <c r="M43" t="n">
-        <v>24.41251819168541</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N43" t="n">
-        <v>15.73493574085631</v>
+        <v>140.1808301100949</v>
       </c>
       <c r="O43" t="n">
         <v>36.75360473212288</v>
@@ -30663,28 +30663,28 @@
         <v>126.7873135096155</v>
       </c>
       <c r="R43" t="n">
-        <v>204.3615255958818</v>
+        <v>203.1992413686567</v>
       </c>
       <c r="S43" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="T43" t="n">
-        <v>234.3637997269934</v>
+        <v>223.7396340063522</v>
       </c>
       <c r="U43" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="V43" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="W43" t="n">
-        <v>234.3637997269934</v>
+        <v>234.3637997269933</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.3637997269934</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,19 +30718,19 @@
         <v>234.3637997269934</v>
       </c>
       <c r="J44" t="n">
-        <v>234.3637997269934</v>
+        <v>75.8107270893519</v>
       </c>
       <c r="K44" t="n">
         <v>234.3637997269934</v>
       </c>
       <c r="L44" t="n">
+        <v>117.4530751599965</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>234.3637997269934</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>234.3637997269934</v>
@@ -30739,13 +30739,13 @@
         <v>234.3637997269934</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.3712792817742</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="R44" t="n">
         <v>234.3637997269934</v>
       </c>
       <c r="S44" t="n">
-        <v>227.256322694567</v>
+        <v>234.3637997269934</v>
       </c>
       <c r="T44" t="n">
         <v>222.4158060916837</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30797,7 +30797,7 @@
         <v>107.1526813195916</v>
       </c>
       <c r="J45" t="n">
-        <v>51.89691383428357</v>
+        <v>51.89691383428358</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.088174660656001</v>
+        <v>6.088174660656005</v>
       </c>
       <c r="R45" t="n">
         <v>134.3397905891609</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4771050246774</v>
       </c>
       <c r="T45" t="n">
-        <v>214.946253545182</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>234.3637997269934</v>
@@ -30836,13 +30836,13 @@
         <v>234.3637997269934</v>
       </c>
       <c r="W45" t="n">
-        <v>234.3637997269934</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.41435844300847</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>115.8005268606955</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>234.3637997269934</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30882,13 +30882,13 @@
         <v>66.43382185419789</v>
       </c>
       <c r="L46" t="n">
-        <v>31.38893889350277</v>
+        <v>155.8348332627407</v>
       </c>
       <c r="M46" t="n">
-        <v>59.6772630846407</v>
+        <v>24.41251819168542</v>
       </c>
       <c r="N46" t="n">
-        <v>15.73493574085631</v>
+        <v>15.73493574085632</v>
       </c>
       <c r="O46" t="n">
         <v>36.75360473212288</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H11" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I11" t="n">
         <v>16.12105094366751</v>
@@ -31774,19 +31774,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O11" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P11" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R11" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S11" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T11" t="n">
         <v>1.830488308304377</v>
@@ -31835,19 +31835,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I12" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J12" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K12" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L12" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M12" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N12" t="n">
         <v>58.18960354900734</v>
@@ -31856,19 +31856,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P12" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R12" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S12" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T12" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U12" t="n">
         <v>0.01471937221934789</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H13" t="n">
         <v>1.667680742333724</v>
@@ -31923,13 +31923,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L13" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M13" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N13" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O13" t="n">
         <v>26.51237237403346</v>
@@ -31944,10 +31944,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S13" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U13" t="n">
         <v>0.01023117019836641</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H14" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I14" t="n">
         <v>16.12105094366751</v>
@@ -32011,19 +32011,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O14" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P14" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R14" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S14" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T14" t="n">
         <v>1.830488308304377</v>
@@ -32072,19 +32072,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I15" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J15" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K15" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L15" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M15" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N15" t="n">
         <v>58.18960354900734</v>
@@ -32093,19 +32093,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P15" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R15" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S15" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T15" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U15" t="n">
         <v>0.01471937221934789</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H16" t="n">
         <v>1.667680742333724</v>
@@ -32160,13 +32160,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L16" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M16" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N16" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O16" t="n">
         <v>26.51237237403346</v>
@@ -32181,10 +32181,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S16" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U16" t="n">
         <v>0.01023117019836641</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H17" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I17" t="n">
         <v>16.12105094366751</v>
@@ -32248,19 +32248,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O17" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P17" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R17" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S17" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T17" t="n">
         <v>1.830488308304377</v>
@@ -32309,19 +32309,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I18" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J18" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K18" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L18" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M18" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N18" t="n">
         <v>58.18960354900734</v>
@@ -32330,19 +32330,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P18" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R18" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S18" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T18" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U18" t="n">
         <v>0.01471937221934789</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H19" t="n">
         <v>1.667680742333724</v>
@@ -32397,13 +32397,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L19" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M19" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N19" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O19" t="n">
         <v>26.51237237403346</v>
@@ -32418,10 +32418,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S19" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U19" t="n">
         <v>0.01023117019836641</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H20" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I20" t="n">
         <v>16.12105094366751</v>
@@ -32485,19 +32485,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O20" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P20" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R20" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S20" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T20" t="n">
         <v>1.830488308304377</v>
@@ -32546,19 +32546,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I21" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J21" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K21" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L21" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M21" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N21" t="n">
         <v>58.18960354900734</v>
@@ -32567,19 +32567,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P21" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R21" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S21" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T21" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U21" t="n">
         <v>0.01471937221934789</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H22" t="n">
         <v>1.667680742333724</v>
@@ -32634,13 +32634,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L22" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M22" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N22" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O22" t="n">
         <v>26.51237237403346</v>
@@ -32655,10 +32655,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S22" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U22" t="n">
         <v>0.01023117019836641</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H23" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I23" t="n">
         <v>16.12105094366751</v>
@@ -32722,19 +32722,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O23" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P23" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R23" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S23" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T23" t="n">
         <v>1.830488308304377</v>
@@ -32783,19 +32783,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I24" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J24" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K24" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L24" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M24" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N24" t="n">
         <v>58.18960354900734</v>
@@ -32804,19 +32804,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P24" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R24" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S24" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T24" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U24" t="n">
         <v>0.01471937221934789</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H25" t="n">
         <v>1.667680742333724</v>
@@ -32871,13 +32871,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L25" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M25" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N25" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O25" t="n">
         <v>26.51237237403346</v>
@@ -32892,10 +32892,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S25" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U25" t="n">
         <v>0.01023117019836641</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H26" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I26" t="n">
         <v>16.12105094366751</v>
@@ -32959,19 +32959,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O26" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P26" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R26" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S26" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T26" t="n">
         <v>1.830488308304377</v>
@@ -33020,19 +33020,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I27" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J27" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K27" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L27" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M27" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N27" t="n">
         <v>58.18960354900734</v>
@@ -33041,19 +33041,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P27" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R27" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S27" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T27" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U27" t="n">
         <v>0.01471937221934789</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H28" t="n">
         <v>1.667680742333724</v>
@@ -33108,13 +33108,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L28" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M28" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N28" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O28" t="n">
         <v>26.51237237403346</v>
@@ -33129,10 +33129,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S28" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U28" t="n">
         <v>0.01023117019836641</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H29" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I29" t="n">
         <v>16.12105094366751</v>
@@ -33196,19 +33196,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O29" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P29" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R29" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S29" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T29" t="n">
         <v>1.830488308304377</v>
@@ -33257,19 +33257,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I30" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J30" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K30" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L30" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M30" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N30" t="n">
         <v>58.18960354900734</v>
@@ -33278,19 +33278,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P30" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R30" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S30" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T30" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U30" t="n">
         <v>0.01471937221934789</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H31" t="n">
         <v>1.667680742333724</v>
@@ -33345,13 +33345,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L31" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M31" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N31" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O31" t="n">
         <v>26.51237237403346</v>
@@ -33366,10 +33366,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S31" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U31" t="n">
         <v>0.01023117019836641</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H32" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I32" t="n">
         <v>16.12105094366751</v>
@@ -33433,19 +33433,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O32" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P32" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R32" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S32" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T32" t="n">
         <v>1.830488308304377</v>
@@ -33494,19 +33494,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I33" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J33" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K33" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L33" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M33" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N33" t="n">
         <v>58.18960354900734</v>
@@ -33515,19 +33515,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P33" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R33" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S33" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T33" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U33" t="n">
         <v>0.01471937221934789</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H34" t="n">
         <v>1.667680742333724</v>
@@ -33582,13 +33582,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L34" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M34" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N34" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O34" t="n">
         <v>26.51237237403346</v>
@@ -33603,10 +33603,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S34" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U34" t="n">
         <v>0.01023117019836641</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H35" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I35" t="n">
         <v>16.12105094366751</v>
@@ -33670,19 +33670,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O35" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P35" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R35" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S35" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T35" t="n">
         <v>1.830488308304377</v>
@@ -33731,19 +33731,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I36" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J36" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K36" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L36" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M36" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N36" t="n">
         <v>58.18960354900734</v>
@@ -33752,19 +33752,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P36" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R36" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S36" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T36" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U36" t="n">
         <v>0.01471937221934789</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H37" t="n">
         <v>1.667680742333724</v>
@@ -33819,13 +33819,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L37" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M37" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N37" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O37" t="n">
         <v>26.51237237403346</v>
@@ -33840,10 +33840,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S37" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U37" t="n">
         <v>0.01023117019836641</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H38" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I38" t="n">
         <v>16.12105094366751</v>
@@ -33907,19 +33907,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O38" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P38" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R38" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S38" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T38" t="n">
         <v>1.830488308304377</v>
@@ -33968,19 +33968,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I39" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J39" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K39" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L39" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M39" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N39" t="n">
         <v>58.18960354900734</v>
@@ -33989,19 +33989,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P39" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R39" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S39" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T39" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U39" t="n">
         <v>0.01471937221934789</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H40" t="n">
         <v>1.667680742333724</v>
@@ -34056,13 +34056,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L40" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M40" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N40" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O40" t="n">
         <v>26.51237237403346</v>
@@ -34077,10 +34077,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S40" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U40" t="n">
         <v>0.01023117019836641</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H41" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I41" t="n">
         <v>16.12105094366751</v>
@@ -34144,19 +34144,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O41" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P41" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R41" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S41" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T41" t="n">
         <v>1.830488308304377</v>
@@ -34205,19 +34205,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I42" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J42" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K42" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L42" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M42" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N42" t="n">
         <v>58.18960354900734</v>
@@ -34226,19 +34226,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P42" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R42" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S42" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T42" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U42" t="n">
         <v>0.01471937221934789</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H43" t="n">
         <v>1.667680742333724</v>
@@ -34293,13 +34293,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L43" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M43" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N43" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O43" t="n">
         <v>26.51237237403346</v>
@@ -34314,10 +34314,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S43" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U43" t="n">
         <v>0.01023117019836641</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4181583799667335</v>
+        <v>0.4181583799667334</v>
       </c>
       <c r="H44" t="n">
-        <v>4.282464508834311</v>
+        <v>4.28246450883431</v>
       </c>
       <c r="I44" t="n">
         <v>16.12105094366751</v>
@@ -34381,19 +34381,19 @@
         <v>74.61304513341423</v>
       </c>
       <c r="O44" t="n">
-        <v>70.45498274262003</v>
+        <v>70.45498274262002</v>
       </c>
       <c r="P44" t="n">
-        <v>60.13169773719128</v>
+        <v>60.13169773719127</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.15640075463263</v>
+        <v>45.15640075463262</v>
       </c>
       <c r="R44" t="n">
-        <v>26.26714133558535</v>
+        <v>26.26714133558534</v>
       </c>
       <c r="S44" t="n">
-        <v>9.528784083491949</v>
+        <v>9.528784083491947</v>
       </c>
       <c r="T44" t="n">
         <v>1.830488308304377</v>
@@ -34442,19 +34442,19 @@
         <v>2.16080384180027</v>
       </c>
       <c r="I45" t="n">
-        <v>7.703138128125393</v>
+        <v>7.703138128125392</v>
       </c>
       <c r="J45" t="n">
         <v>21.13799979846485</v>
       </c>
       <c r="K45" t="n">
-        <v>36.12820846664874</v>
+        <v>36.12820846664873</v>
       </c>
       <c r="L45" t="n">
-        <v>48.57883478125447</v>
+        <v>48.57883478125446</v>
       </c>
       <c r="M45" t="n">
-        <v>56.68920887411514</v>
+        <v>56.68920887411513</v>
       </c>
       <c r="N45" t="n">
         <v>58.18960354900734</v>
@@ -34463,19 +34463,19 @@
         <v>53.23211898553097</v>
       </c>
       <c r="P45" t="n">
-        <v>42.72346851239788</v>
+        <v>42.72346851239787</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.55950727146006</v>
+        <v>28.55950727146005</v>
       </c>
       <c r="R45" t="n">
         <v>13.89116220913925</v>
       </c>
       <c r="S45" t="n">
-        <v>4.15576942326255</v>
+        <v>4.155769423262549</v>
       </c>
       <c r="T45" t="n">
-        <v>0.90180687130538</v>
+        <v>0.9018068713053798</v>
       </c>
       <c r="U45" t="n">
         <v>0.01471937221934789</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1875714536367173</v>
+        <v>0.1875714536367172</v>
       </c>
       <c r="H46" t="n">
         <v>1.667680742333724</v>
@@ -34530,13 +34530,13 @@
         <v>21.79239252252042</v>
       </c>
       <c r="L46" t="n">
-        <v>27.88675957068068</v>
+        <v>27.88675957068067</v>
       </c>
       <c r="M46" t="n">
-        <v>29.40267795507196</v>
+        <v>29.40267795507195</v>
       </c>
       <c r="N46" t="n">
-        <v>28.70354799151695</v>
+        <v>28.70354799151694</v>
       </c>
       <c r="O46" t="n">
         <v>26.51237237403346</v>
@@ -34551,10 +34551,10 @@
         <v>8.43389463352003</v>
       </c>
       <c r="S46" t="n">
-        <v>3.268858878378063</v>
+        <v>3.268858878378062</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8014416655387008</v>
+        <v>0.8014416655387007</v>
       </c>
       <c r="U46" t="n">
         <v>0.01023117019836641</v>
@@ -35410,28 +35410,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.97518102780139</v>
       </c>
       <c r="L11" t="n">
         <v>48.99796931190778</v>
       </c>
       <c r="M11" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="N11" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="O11" t="n">
-        <v>36.4936822664212</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.51957680252669</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.09183652339187</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.33512650208174</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>35.63802383762744</v>
       </c>
       <c r="M12" t="n">
-        <v>35.63802383762723</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="O12" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="P12" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,31 +35550,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.57867003113026</v>
       </c>
       <c r="F13" t="n">
-        <v>67.32792902490843</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.55916756904683</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>40.47603509124892</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>41.55615394274167</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.12991456453881</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="M13" t="n">
-        <v>8.641005856844112</v>
+        <v>52.85170688912003</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>67.61141332591922</v>
+        <v>25.97518102780139</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>78.12991456453904</v>
       </c>
       <c r="O14" t="n">
-        <v>36.4936822664212</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>74.97315033970918</v>
+      </c>
+      <c r="M15" t="n">
         <v>78.12991456453904</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>74.97315033970918</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>78.12991456453904</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>37.5591675690468</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.55615394274164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>78.12991456453904</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>38.31505540846285</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>78.12991456453904</v>
       </c>
-      <c r="O16" t="n">
-        <v>78.12991456453904</v>
-      </c>
-      <c r="P16" t="n">
-        <v>39.30046235571209</v>
-      </c>
       <c r="Q16" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>78.12991456453904</v>
       </c>
       <c r="O17" t="n">
-        <v>36.4936822664212</v>
+        <v>36.49368226642119</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>67.61141332591923</v>
       </c>
       <c r="U17" t="n">
-        <v>67.6114133259192</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.33512650208174</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>78.12991456453904</v>
       </c>
       <c r="M18" t="n">
+        <v>74.97315033970918</v>
+      </c>
+      <c r="N18" t="n">
         <v>78.12991456453904</v>
-      </c>
-      <c r="N18" t="n">
-        <v>35.63802383762744</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.87615324904651</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>67.61141332591922</v>
       </c>
       <c r="L20" t="n">
         <v>48.99796931190778</v>
@@ -36133,7 +36133,7 @@
         <v>78.12991456453904</v>
       </c>
       <c r="O20" t="n">
-        <v>36.4936822664212</v>
+        <v>36.49368226642119</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.73526007687269</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>39.33512650208174</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>78.12991456453904</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>35.63802383762744</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>78.12991456453904</v>
@@ -36364,13 +36364,13 @@
         <v>48.99796931190778</v>
       </c>
       <c r="M23" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="N23" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="O23" t="n">
-        <v>36.4936822664212</v>
+        <v>36.49368226642119</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>50.87615324904669</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>50.8761532490465</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>16.73526007687269</v>
@@ -36440,19 +36440,19 @@
         <v>39.33512650208174</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>35.63802383762752</v>
       </c>
       <c r="M24" t="n">
-        <v>35.63802383762744</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="N24" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="O24" t="n">
-        <v>78.12991456453904</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>78.12991456453904</v>
+        <v>78.12991456453912</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0689364303216</v>
+        <v>137.0689364303215</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6075866166054</v>
+        <v>207.6075866166053</v>
       </c>
       <c r="L26" t="n">
-        <v>261.8776328315813</v>
+        <v>261.8776328315812</v>
       </c>
       <c r="M26" t="n">
-        <v>296.5669813220893</v>
+        <v>296.5669813220899</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0095780842125</v>
+        <v>291.0095780842124</v>
       </c>
       <c r="O26" t="n">
-        <v>249.3733457860947</v>
+        <v>249.3733457860946</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4326693305567</v>
+        <v>199.4326693305575</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.403236575096</v>
+        <v>124.4032365750959</v>
       </c>
       <c r="R26" t="n">
-        <v>18.71668879971029</v>
+        <v>18.71668879971018</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P27" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.42248254770104</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,16 +36741,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35.33509566183407</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.003636862665</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00283551285089</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0216663270564</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.092350010058</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.68042215101676</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0689364303216</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6075866166048</v>
+        <v>207.6075866166054</v>
       </c>
       <c r="L29" t="n">
         <v>261.8776328315813</v>
@@ -36847,13 +36847,13 @@
         <v>249.3733457860947</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4326693305567</v>
+        <v>199.4326693305566</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.403236575096</v>
+        <v>124.4032365750959</v>
       </c>
       <c r="R29" t="n">
-        <v>18.71668879971029</v>
+        <v>18.71668879971025</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P30" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.69701326896279</v>
+        <v>48.31209920860282</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>82.98988125756988</v>
+        <v>188.4671453279881</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.092350010058</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.8776328315813</v>
       </c>
       <c r="M32" t="n">
-        <v>296.56698132209</v>
+        <v>296.5669813220902</v>
       </c>
       <c r="N32" t="n">
         <v>291.0095780842125</v>
@@ -37084,13 +37084,13 @@
         <v>249.3733457860947</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4326693305567</v>
+        <v>199.4326693305566</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.403236575096</v>
+        <v>124.4032365750959</v>
       </c>
       <c r="R32" t="n">
-        <v>18.71668879971028</v>
+        <v>18.71668879971026</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P33" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>39.63451675777377</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.1447277788171</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1260587875506</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>60.65318574904006</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>158.5530726376414</v>
+        <v>158.5530726376415</v>
       </c>
       <c r="K35" t="n">
-        <v>176.0437317109717</v>
+        <v>229.0917228239253</v>
       </c>
       <c r="L35" t="n">
-        <v>48.99796931190778</v>
+        <v>168.5911817992823</v>
       </c>
       <c r="M35" t="n">
-        <v>83.6873178024165</v>
+        <v>318.0511175294099</v>
       </c>
       <c r="N35" t="n">
-        <v>312.4937142915323</v>
+        <v>312.4937142915325</v>
       </c>
       <c r="O35" t="n">
-        <v>270.8574819934145</v>
+        <v>270.8574819934146</v>
       </c>
       <c r="P35" t="n">
-        <v>220.9168055378765</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.8873727824158</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.2008250070301</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.107477032426253</v>
+        <v>7.107477032426337</v>
       </c>
       <c r="T35" t="n">
-        <v>11.94799363530964</v>
+        <v>11.94799363530972</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P36" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.958922649067736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>114.4869717201707</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>124.4458943692381</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>158.5530726376414</v>
+        <v>158.5530726376415</v>
       </c>
       <c r="K38" t="n">
-        <v>229.0917228239252</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>283.3617690389011</v>
+        <v>283.3617690389012</v>
       </c>
       <c r="M38" t="n">
-        <v>318.0511175294098</v>
+        <v>318.0511175294099</v>
       </c>
       <c r="N38" t="n">
-        <v>312.4937142915323</v>
+        <v>312.4937142915325</v>
       </c>
       <c r="O38" t="n">
-        <v>36.4936822664212</v>
+        <v>131.1684640652406</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>220.9168055378766</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.3923874803446</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.2008250070301</v>
+        <v>40.20082500703018</v>
       </c>
       <c r="S38" t="n">
-        <v>7.107477032426253</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>11.94799363530964</v>
+        <v>11.94799363530972</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P39" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.74687906202522</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38.03214407563756</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>6.245242431219079</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>107.5764862173779</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>10.62416572064114</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.44434431875078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.22252691282489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>158.5530726376415</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>100.2330046216195</v>
       </c>
       <c r="L41" t="n">
-        <v>283.3617690389012</v>
+        <v>283.3617690389011</v>
       </c>
       <c r="M41" t="n">
-        <v>318.0511175294099</v>
+        <v>83.6873178024165</v>
       </c>
       <c r="N41" t="n">
-        <v>273.2291169432449</v>
+        <v>312.4937142915323</v>
       </c>
       <c r="O41" t="n">
-        <v>36.4936822664212</v>
+        <v>270.8574819934145</v>
       </c>
       <c r="P41" t="n">
-        <v>220.9168055378766</v>
+        <v>220.9168055378765</v>
       </c>
       <c r="Q41" t="n">
-        <v>145.8873727824159</v>
+        <v>145.8873727824158</v>
       </c>
       <c r="R41" t="n">
-        <v>40.20082500703022</v>
+        <v>40.20082500703007</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.107477032426223</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>11.94799363530961</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P42" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>95.43691750854677</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>124.4458943692386</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.162284227225077</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.62416572064117</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.222526912825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>158.5530726376415</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>229.0917228239253</v>
       </c>
       <c r="L44" t="n">
-        <v>283.3617690389012</v>
+        <v>166.4510444719043</v>
       </c>
       <c r="M44" t="n">
         <v>83.6873178024165</v>
       </c>
       <c r="N44" t="n">
-        <v>78.12991456453904</v>
+        <v>312.4937142915325</v>
       </c>
       <c r="O44" t="n">
         <v>270.8574819934146</v>
@@ -38035,13 +38035,13 @@
         <v>220.9168055378766</v>
       </c>
       <c r="Q44" t="n">
-        <v>111.8948523371967</v>
+        <v>145.8873727824159</v>
       </c>
       <c r="R44" t="n">
-        <v>40.20082500703022</v>
+        <v>40.20082500703021</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>7.107477032426365</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>134.4874836546295</v>
       </c>
       <c r="P45" t="n">
-        <v>85.63856554559428</v>
+        <v>85.63856554559426</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89.18114947628271</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>124.445894369238</v>
       </c>
       <c r="M46" t="n">
-        <v>35.26474489295529</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
